--- a/resistors.xlsx
+++ b/resistors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrne\Altium-Lib-Tom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C66A496-F010-43E5-A8EC-884EE32119F7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756EC8D2-C392-48EC-A536-7C31B197E269}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="9345" xr2:uid="{78D20A57-1DED-49B5-B563-D879E43957A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="9345" activeTab="1" xr2:uid="{78D20A57-1DED-49B5-B563-D879E43957A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Through-Hole" sheetId="1" r:id="rId1"/>
@@ -1287,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2836C16-527F-40CD-92B2-0E8CE5C6790A}">
   <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,8 +1363,8 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>"RES-TH-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-TH-000001</v>
+        <f>"RES-TH-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-TH-0001</v>
       </c>
       <c r="B2" t="s">
         <v>296</v>
@@ -1408,8 +1408,8 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">"RES-TH-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-TH-000002</v>
+        <f t="shared" ref="A3:A66" si="0">"RES-TH-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-TH-0002</v>
       </c>
       <c r="C3" s="4">
         <v>1.1000000000000001</v>
@@ -1445,7 +1445,7 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000003</v>
+        <v>RES-TH-0003</v>
       </c>
       <c r="C4" s="4">
         <v>1.2</v>
@@ -1481,7 +1481,7 @@
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000004</v>
+        <v>RES-TH-0004</v>
       </c>
       <c r="C5" s="4">
         <v>1.3</v>
@@ -1517,7 +1517,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000005</v>
+        <v>RES-TH-0005</v>
       </c>
       <c r="C6" s="4">
         <v>1.5</v>
@@ -1553,7 +1553,7 @@
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000006</v>
+        <v>RES-TH-0006</v>
       </c>
       <c r="C7" s="4">
         <v>1.6</v>
@@ -1589,7 +1589,7 @@
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000007</v>
+        <v>RES-TH-0007</v>
       </c>
       <c r="C8" s="4">
         <v>1.8</v>
@@ -1625,7 +1625,7 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000008</v>
+        <v>RES-TH-0008</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1661,7 +1661,7 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000009</v>
+        <v>RES-TH-0009</v>
       </c>
       <c r="C10" s="4">
         <v>2.2000000000000002</v>
@@ -1697,7 +1697,7 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000010</v>
+        <v>RES-TH-0010</v>
       </c>
       <c r="C11" s="4">
         <v>2.4</v>
@@ -1733,7 +1733,7 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000011</v>
+        <v>RES-TH-0011</v>
       </c>
       <c r="C12" s="4">
         <v>2.7</v>
@@ -1769,7 +1769,7 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000012</v>
+        <v>RES-TH-0012</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -1805,7 +1805,7 @@
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000013</v>
+        <v>RES-TH-0013</v>
       </c>
       <c r="C14" s="4">
         <v>3.3</v>
@@ -1841,7 +1841,7 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000014</v>
+        <v>RES-TH-0014</v>
       </c>
       <c r="C15" s="4">
         <v>3.6</v>
@@ -1877,7 +1877,7 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000015</v>
+        <v>RES-TH-0015</v>
       </c>
       <c r="C16" s="4">
         <v>3.9</v>
@@ -1913,7 +1913,7 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000016</v>
+        <v>RES-TH-0016</v>
       </c>
       <c r="C17" s="4">
         <v>4.3</v>
@@ -1949,7 +1949,7 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000017</v>
+        <v>RES-TH-0017</v>
       </c>
       <c r="C18" s="4">
         <v>4.7</v>
@@ -1985,7 +1985,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000018</v>
+        <v>RES-TH-0018</v>
       </c>
       <c r="C19" s="4">
         <v>5.0999999999999996</v>
@@ -2021,7 +2021,7 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000019</v>
+        <v>RES-TH-0019</v>
       </c>
       <c r="C20" s="4">
         <v>5.6</v>
@@ -2057,7 +2057,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000020</v>
+        <v>RES-TH-0020</v>
       </c>
       <c r="C21" s="4">
         <v>6.2</v>
@@ -2093,7 +2093,7 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000021</v>
+        <v>RES-TH-0021</v>
       </c>
       <c r="C22" s="4">
         <v>6.8</v>
@@ -2129,7 +2129,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000022</v>
+        <v>RES-TH-0022</v>
       </c>
       <c r="C23" s="4">
         <v>7.5</v>
@@ -2165,7 +2165,7 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000023</v>
+        <v>RES-TH-0023</v>
       </c>
       <c r="C24" s="4">
         <v>8.1999999999999993</v>
@@ -2201,7 +2201,7 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000024</v>
+        <v>RES-TH-0024</v>
       </c>
       <c r="C25" s="4">
         <v>9.1</v>
@@ -2237,7 +2237,7 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000025</v>
+        <v>RES-TH-0025</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
@@ -2273,7 +2273,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000026</v>
+        <v>RES-TH-0026</v>
       </c>
       <c r="C27" s="4">
         <v>11</v>
@@ -2309,7 +2309,7 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000027</v>
+        <v>RES-TH-0027</v>
       </c>
       <c r="C28" s="4">
         <v>12</v>
@@ -2345,7 +2345,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000028</v>
+        <v>RES-TH-0028</v>
       </c>
       <c r="C29" s="4">
         <v>13</v>
@@ -2381,7 +2381,7 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000029</v>
+        <v>RES-TH-0029</v>
       </c>
       <c r="C30" s="4">
         <v>15</v>
@@ -2417,7 +2417,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000030</v>
+        <v>RES-TH-0030</v>
       </c>
       <c r="C31" s="4">
         <v>16</v>
@@ -2453,7 +2453,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000031</v>
+        <v>RES-TH-0031</v>
       </c>
       <c r="C32" s="4">
         <v>18</v>
@@ -2489,7 +2489,7 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000032</v>
+        <v>RES-TH-0032</v>
       </c>
       <c r="C33" s="4">
         <v>20</v>
@@ -2525,7 +2525,7 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000033</v>
+        <v>RES-TH-0033</v>
       </c>
       <c r="C34" s="4">
         <v>22</v>
@@ -2561,7 +2561,7 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000034</v>
+        <v>RES-TH-0034</v>
       </c>
       <c r="C35" s="4">
         <v>24</v>
@@ -2597,7 +2597,7 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000035</v>
+        <v>RES-TH-0035</v>
       </c>
       <c r="C36" s="4">
         <v>27</v>
@@ -2633,7 +2633,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000036</v>
+        <v>RES-TH-0036</v>
       </c>
       <c r="C37" s="4">
         <v>30</v>
@@ -2669,7 +2669,7 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000037</v>
+        <v>RES-TH-0037</v>
       </c>
       <c r="C38" s="4">
         <v>33</v>
@@ -2705,7 +2705,7 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000038</v>
+        <v>RES-TH-0038</v>
       </c>
       <c r="C39" s="4">
         <v>36</v>
@@ -2741,7 +2741,7 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000039</v>
+        <v>RES-TH-0039</v>
       </c>
       <c r="C40" s="4">
         <v>39</v>
@@ -2777,7 +2777,7 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000040</v>
+        <v>RES-TH-0040</v>
       </c>
       <c r="C41" s="4">
         <v>43</v>
@@ -2813,7 +2813,7 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000041</v>
+        <v>RES-TH-0041</v>
       </c>
       <c r="C42" s="4">
         <v>47</v>
@@ -2849,7 +2849,7 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000042</v>
+        <v>RES-TH-0042</v>
       </c>
       <c r="C43" s="4">
         <v>51</v>
@@ -2885,7 +2885,7 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000043</v>
+        <v>RES-TH-0043</v>
       </c>
       <c r="C44" s="4">
         <v>56</v>
@@ -2921,7 +2921,7 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000044</v>
+        <v>RES-TH-0044</v>
       </c>
       <c r="C45" s="4">
         <v>62</v>
@@ -2957,7 +2957,7 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000045</v>
+        <v>RES-TH-0045</v>
       </c>
       <c r="C46" s="4">
         <v>68</v>
@@ -2993,7 +2993,7 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000046</v>
+        <v>RES-TH-0046</v>
       </c>
       <c r="C47" s="4">
         <v>75</v>
@@ -3029,7 +3029,7 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000047</v>
+        <v>RES-TH-0047</v>
       </c>
       <c r="C48" s="4">
         <v>82</v>
@@ -3065,7 +3065,7 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000048</v>
+        <v>RES-TH-0048</v>
       </c>
       <c r="C49" s="4">
         <v>91</v>
@@ -3101,7 +3101,7 @@
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000049</v>
+        <v>RES-TH-0049</v>
       </c>
       <c r="C50" s="4">
         <v>100</v>
@@ -3137,7 +3137,7 @@
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000050</v>
+        <v>RES-TH-0050</v>
       </c>
       <c r="C51" s="4">
         <v>110</v>
@@ -3173,7 +3173,7 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000051</v>
+        <v>RES-TH-0051</v>
       </c>
       <c r="C52" s="4">
         <v>120</v>
@@ -3209,7 +3209,7 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000052</v>
+        <v>RES-TH-0052</v>
       </c>
       <c r="C53" s="4">
         <v>130</v>
@@ -3245,7 +3245,7 @@
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000053</v>
+        <v>RES-TH-0053</v>
       </c>
       <c r="C54" s="4">
         <v>150</v>
@@ -3281,7 +3281,7 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000054</v>
+        <v>RES-TH-0054</v>
       </c>
       <c r="C55" s="4">
         <v>160</v>
@@ -3317,7 +3317,7 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000055</v>
+        <v>RES-TH-0055</v>
       </c>
       <c r="C56" s="4">
         <v>180</v>
@@ -3353,7 +3353,7 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000056</v>
+        <v>RES-TH-0056</v>
       </c>
       <c r="C57" s="4">
         <v>200</v>
@@ -3389,7 +3389,7 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000057</v>
+        <v>RES-TH-0057</v>
       </c>
       <c r="C58" s="4">
         <v>220</v>
@@ -3425,7 +3425,7 @@
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000058</v>
+        <v>RES-TH-0058</v>
       </c>
       <c r="C59" s="4">
         <v>240</v>
@@ -3461,7 +3461,7 @@
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000059</v>
+        <v>RES-TH-0059</v>
       </c>
       <c r="C60" s="4">
         <v>270</v>
@@ -3497,7 +3497,7 @@
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000060</v>
+        <v>RES-TH-0060</v>
       </c>
       <c r="C61" s="4">
         <v>300</v>
@@ -3533,7 +3533,7 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000061</v>
+        <v>RES-TH-0061</v>
       </c>
       <c r="C62" s="4">
         <v>330</v>
@@ -3569,7 +3569,7 @@
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000062</v>
+        <v>RES-TH-0062</v>
       </c>
       <c r="C63" s="4">
         <v>360</v>
@@ -3605,7 +3605,7 @@
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000063</v>
+        <v>RES-TH-0063</v>
       </c>
       <c r="C64" s="4">
         <v>390</v>
@@ -3641,7 +3641,7 @@
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000064</v>
+        <v>RES-TH-0064</v>
       </c>
       <c r="C65" s="4">
         <v>430</v>
@@ -3677,7 +3677,7 @@
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v>RES-TH-000065</v>
+        <v>RES-TH-0065</v>
       </c>
       <c r="C66" s="4">
         <v>470</v>
@@ -3712,8 +3712,8 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="1">"RES-TH-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-TH-000066</v>
+        <f t="shared" ref="A67:A130" si="1">"RES-TH-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-TH-0066</v>
       </c>
       <c r="C67" s="4">
         <v>510</v>
@@ -3749,7 +3749,7 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000067</v>
+        <v>RES-TH-0067</v>
       </c>
       <c r="C68" s="4">
         <v>560</v>
@@ -3785,7 +3785,7 @@
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000068</v>
+        <v>RES-TH-0068</v>
       </c>
       <c r="C69" s="4">
         <v>620</v>
@@ -3821,7 +3821,7 @@
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000069</v>
+        <v>RES-TH-0069</v>
       </c>
       <c r="C70" s="4">
         <v>680</v>
@@ -3857,7 +3857,7 @@
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000070</v>
+        <v>RES-TH-0070</v>
       </c>
       <c r="C71" s="4">
         <v>750</v>
@@ -3893,7 +3893,7 @@
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000071</v>
+        <v>RES-TH-0071</v>
       </c>
       <c r="C72" s="4">
         <v>820</v>
@@ -3929,7 +3929,7 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000072</v>
+        <v>RES-TH-0072</v>
       </c>
       <c r="C73" s="4">
         <v>910</v>
@@ -3965,7 +3965,7 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000073</v>
+        <v>RES-TH-0073</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>16</v>
@@ -4001,7 +4001,7 @@
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000074</v>
+        <v>RES-TH-0074</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>9</v>
@@ -4037,7 +4037,7 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000075</v>
+        <v>RES-TH-0075</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>10</v>
@@ -4073,7 +4073,7 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000076</v>
+        <v>RES-TH-0076</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>11</v>
@@ -4109,7 +4109,7 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000077</v>
+        <v>RES-TH-0077</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>12</v>
@@ -4145,7 +4145,7 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000078</v>
+        <v>RES-TH-0078</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>13</v>
@@ -4181,7 +4181,7 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000079</v>
+        <v>RES-TH-0079</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>14</v>
@@ -4217,7 +4217,7 @@
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000080</v>
+        <v>RES-TH-0080</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>15</v>
@@ -4253,7 +4253,7 @@
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000081</v>
+        <v>RES-TH-0081</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>17</v>
@@ -4289,7 +4289,7 @@
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000082</v>
+        <v>RES-TH-0082</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>18</v>
@@ -4325,7 +4325,7 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000083</v>
+        <v>RES-TH-0083</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>19</v>
@@ -4361,7 +4361,7 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000084</v>
+        <v>RES-TH-0084</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>20</v>
@@ -4397,7 +4397,7 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000085</v>
+        <v>RES-TH-0085</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>23</v>
@@ -4433,7 +4433,7 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000086</v>
+        <v>RES-TH-0086</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>24</v>
@@ -4469,7 +4469,7 @@
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000087</v>
+        <v>RES-TH-0087</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>25</v>
@@ -4505,7 +4505,7 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000088</v>
+        <v>RES-TH-0088</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>26</v>
@@ -4541,7 +4541,7 @@
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000089</v>
+        <v>RES-TH-0089</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>27</v>
@@ -4577,7 +4577,7 @@
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000090</v>
+        <v>RES-TH-0090</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>28</v>
@@ -4613,7 +4613,7 @@
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000091</v>
+        <v>RES-TH-0091</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>29</v>
@@ -4649,7 +4649,7 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000092</v>
+        <v>RES-TH-0092</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>30</v>
@@ -4685,7 +4685,7 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000093</v>
+        <v>RES-TH-0093</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>31</v>
@@ -4721,7 +4721,7 @@
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000094</v>
+        <v>RES-TH-0094</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>32</v>
@@ -4757,7 +4757,7 @@
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000095</v>
+        <v>RES-TH-0095</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>33</v>
@@ -4793,7 +4793,7 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000096</v>
+        <v>RES-TH-0096</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>34</v>
@@ -4829,7 +4829,7 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000097</v>
+        <v>RES-TH-0097</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>35</v>
@@ -4865,7 +4865,7 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000098</v>
+        <v>RES-TH-0098</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>36</v>
@@ -4901,7 +4901,7 @@
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000099</v>
+        <v>RES-TH-0099</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>37</v>
@@ -4937,7 +4937,7 @@
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000100</v>
+        <v>RES-TH-0100</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>38</v>
@@ -4973,7 +4973,7 @@
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000101</v>
+        <v>RES-TH-0101</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>39</v>
@@ -5009,7 +5009,7 @@
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000102</v>
+        <v>RES-TH-0102</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>40</v>
@@ -5045,7 +5045,7 @@
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000103</v>
+        <v>RES-TH-0103</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>41</v>
@@ -5081,7 +5081,7 @@
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000104</v>
+        <v>RES-TH-0104</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>42</v>
@@ -5117,7 +5117,7 @@
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000105</v>
+        <v>RES-TH-0105</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>43</v>
@@ -5153,7 +5153,7 @@
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000106</v>
+        <v>RES-TH-0106</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>44</v>
@@ -5189,7 +5189,7 @@
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000107</v>
+        <v>RES-TH-0107</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>45</v>
@@ -5225,7 +5225,7 @@
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000108</v>
+        <v>RES-TH-0108</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>46</v>
@@ -5261,7 +5261,7 @@
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000109</v>
+        <v>RES-TH-0109</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>21</v>
@@ -5297,7 +5297,7 @@
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000110</v>
+        <v>RES-TH-0110</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>22</v>
@@ -5333,7 +5333,7 @@
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000111</v>
+        <v>RES-TH-0111</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>47</v>
@@ -5369,7 +5369,7 @@
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000112</v>
+        <v>RES-TH-0112</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>48</v>
@@ -5405,7 +5405,7 @@
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000113</v>
+        <v>RES-TH-0113</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>49</v>
@@ -5441,7 +5441,7 @@
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000114</v>
+        <v>RES-TH-0114</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>50</v>
@@ -5477,7 +5477,7 @@
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000115</v>
+        <v>RES-TH-0115</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>51</v>
@@ -5513,7 +5513,7 @@
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000116</v>
+        <v>RES-TH-0116</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>52</v>
@@ -5549,7 +5549,7 @@
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000117</v>
+        <v>RES-TH-0117</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>53</v>
@@ -5585,7 +5585,7 @@
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000118</v>
+        <v>RES-TH-0118</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>54</v>
@@ -5621,7 +5621,7 @@
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000119</v>
+        <v>RES-TH-0119</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>55</v>
@@ -5657,7 +5657,7 @@
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000120</v>
+        <v>RES-TH-0120</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>56</v>
@@ -5693,7 +5693,7 @@
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000121</v>
+        <v>RES-TH-0121</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>57</v>
@@ -5729,7 +5729,7 @@
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000122</v>
+        <v>RES-TH-0122</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>58</v>
@@ -5765,7 +5765,7 @@
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000123</v>
+        <v>RES-TH-0123</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>59</v>
@@ -5801,7 +5801,7 @@
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000124</v>
+        <v>RES-TH-0124</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>60</v>
@@ -5837,7 +5837,7 @@
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000125</v>
+        <v>RES-TH-0125</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>61</v>
@@ -5873,7 +5873,7 @@
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000126</v>
+        <v>RES-TH-0126</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>62</v>
@@ -5909,7 +5909,7 @@
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000127</v>
+        <v>RES-TH-0127</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>63</v>
@@ -5945,7 +5945,7 @@
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000128</v>
+        <v>RES-TH-0128</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>64</v>
@@ -5981,7 +5981,7 @@
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
-        <v>RES-TH-000129</v>
+        <v>RES-TH-0129</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>65</v>
@@ -6016,8 +6016,8 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A170" si="2">"RES-TH-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-TH-000130</v>
+        <f t="shared" ref="A131:A170" si="2">"RES-TH-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-TH-0130</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>66</v>
@@ -6053,7 +6053,7 @@
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000131</v>
+        <v>RES-TH-0131</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>67</v>
@@ -6089,7 +6089,7 @@
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000132</v>
+        <v>RES-TH-0132</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>68</v>
@@ -6125,7 +6125,7 @@
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000133</v>
+        <v>RES-TH-0133</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>69</v>
@@ -6161,7 +6161,7 @@
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000134</v>
+        <v>RES-TH-0134</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>70</v>
@@ -6197,7 +6197,7 @@
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000135</v>
+        <v>RES-TH-0135</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>71</v>
@@ -6233,7 +6233,7 @@
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000136</v>
+        <v>RES-TH-0136</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>72</v>
@@ -6269,7 +6269,7 @@
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000137</v>
+        <v>RES-TH-0137</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>73</v>
@@ -6305,7 +6305,7 @@
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000138</v>
+        <v>RES-TH-0138</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>74</v>
@@ -6341,7 +6341,7 @@
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000139</v>
+        <v>RES-TH-0139</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>75</v>
@@ -6377,7 +6377,7 @@
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000140</v>
+        <v>RES-TH-0140</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>76</v>
@@ -6413,7 +6413,7 @@
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000141</v>
+        <v>RES-TH-0141</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>77</v>
@@ -6449,7 +6449,7 @@
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000142</v>
+        <v>RES-TH-0142</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>78</v>
@@ -6485,7 +6485,7 @@
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000143</v>
+        <v>RES-TH-0143</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>79</v>
@@ -6521,7 +6521,7 @@
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000144</v>
+        <v>RES-TH-0144</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>80</v>
@@ -6557,7 +6557,7 @@
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000145</v>
+        <v>RES-TH-0145</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>83</v>
@@ -6593,7 +6593,7 @@
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000146</v>
+        <v>RES-TH-0146</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>81</v>
@@ -6629,7 +6629,7 @@
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000147</v>
+        <v>RES-TH-0147</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>82</v>
@@ -6665,7 +6665,7 @@
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000148</v>
+        <v>RES-TH-0148</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>84</v>
@@ -6701,7 +6701,7 @@
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000149</v>
+        <v>RES-TH-0149</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>85</v>
@@ -6737,7 +6737,7 @@
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000150</v>
+        <v>RES-TH-0150</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>86</v>
@@ -6773,7 +6773,7 @@
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000151</v>
+        <v>RES-TH-0151</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>87</v>
@@ -6809,7 +6809,7 @@
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000152</v>
+        <v>RES-TH-0152</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>88</v>
@@ -6845,7 +6845,7 @@
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000153</v>
+        <v>RES-TH-0153</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>89</v>
@@ -6881,7 +6881,7 @@
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000154</v>
+        <v>RES-TH-0154</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>90</v>
@@ -6917,7 +6917,7 @@
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000155</v>
+        <v>RES-TH-0155</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>91</v>
@@ -6953,7 +6953,7 @@
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000156</v>
+        <v>RES-TH-0156</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>92</v>
@@ -6989,7 +6989,7 @@
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000157</v>
+        <v>RES-TH-0157</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>93</v>
@@ -7025,7 +7025,7 @@
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000158</v>
+        <v>RES-TH-0158</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>94</v>
@@ -7061,7 +7061,7 @@
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000159</v>
+        <v>RES-TH-0159</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>95</v>
@@ -7097,7 +7097,7 @@
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000160</v>
+        <v>RES-TH-0160</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>96</v>
@@ -7133,7 +7133,7 @@
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000161</v>
+        <v>RES-TH-0161</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>97</v>
@@ -7169,7 +7169,7 @@
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000162</v>
+        <v>RES-TH-0162</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>98</v>
@@ -7205,7 +7205,7 @@
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000163</v>
+        <v>RES-TH-0163</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>99</v>
@@ -7241,7 +7241,7 @@
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000164</v>
+        <v>RES-TH-0164</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>100</v>
@@ -7277,7 +7277,7 @@
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000165</v>
+        <v>RES-TH-0165</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>101</v>
@@ -7313,7 +7313,7 @@
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000166</v>
+        <v>RES-TH-0166</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>102</v>
@@ -7349,7 +7349,7 @@
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000167</v>
+        <v>RES-TH-0167</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>103</v>
@@ -7385,7 +7385,7 @@
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000168</v>
+        <v>RES-TH-0168</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>104</v>
@@ -7421,7 +7421,7 @@
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
-        <v>RES-TH-000169</v>
+        <v>RES-TH-0169</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>105</v>
@@ -7464,8 +7464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BAED88-2460-42F0-AFE4-44E4F660DB3C}">
   <dimension ref="A1:R677"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7531,8 +7531,8 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>"RES-SM-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-SM-000001</v>
+        <f>"RES-SM-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-SM-0001</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -7558,8 +7558,8 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">"RES-SM-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-SM-000002</v>
+        <f t="shared" ref="A3:A66" si="0">"RES-SM-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-SM-0002</v>
       </c>
       <c r="C3" s="4">
         <v>1.1000000000000001</v>
@@ -7586,7 +7586,7 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000003</v>
+        <v>RES-SM-0003</v>
       </c>
       <c r="C4" s="4">
         <v>1.2</v>
@@ -7613,7 +7613,7 @@
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000004</v>
+        <v>RES-SM-0004</v>
       </c>
       <c r="C5" s="4">
         <v>1.3</v>
@@ -7640,7 +7640,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000005</v>
+        <v>RES-SM-0005</v>
       </c>
       <c r="C6" s="4">
         <v>1.5</v>
@@ -7667,7 +7667,7 @@
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000006</v>
+        <v>RES-SM-0006</v>
       </c>
       <c r="C7" s="4">
         <v>1.6</v>
@@ -7694,7 +7694,7 @@
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000007</v>
+        <v>RES-SM-0007</v>
       </c>
       <c r="C8" s="4">
         <v>1.8</v>
@@ -7721,7 +7721,7 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000008</v>
+        <v>RES-SM-0008</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -7748,7 +7748,7 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000009</v>
+        <v>RES-SM-0009</v>
       </c>
       <c r="C10" s="4">
         <v>2.2000000000000002</v>
@@ -7775,7 +7775,7 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000010</v>
+        <v>RES-SM-0010</v>
       </c>
       <c r="C11" s="4">
         <v>2.4</v>
@@ -7802,7 +7802,7 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000011</v>
+        <v>RES-SM-0011</v>
       </c>
       <c r="C12" s="4">
         <v>2.7</v>
@@ -7829,7 +7829,7 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000012</v>
+        <v>RES-SM-0012</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -7856,7 +7856,7 @@
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000013</v>
+        <v>RES-SM-0013</v>
       </c>
       <c r="C14" s="4">
         <v>3.3</v>
@@ -7883,7 +7883,7 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000014</v>
+        <v>RES-SM-0014</v>
       </c>
       <c r="C15" s="4">
         <v>3.6</v>
@@ -7910,7 +7910,7 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000015</v>
+        <v>RES-SM-0015</v>
       </c>
       <c r="C16" s="4">
         <v>3.9</v>
@@ -7937,7 +7937,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000016</v>
+        <v>RES-SM-0016</v>
       </c>
       <c r="C17" s="4">
         <v>4.3</v>
@@ -7964,7 +7964,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000017</v>
+        <v>RES-SM-0017</v>
       </c>
       <c r="C18" s="4">
         <v>4.7</v>
@@ -7991,7 +7991,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000018</v>
+        <v>RES-SM-0018</v>
       </c>
       <c r="C19" s="4">
         <v>5.0999999999999996</v>
@@ -8018,7 +8018,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000019</v>
+        <v>RES-SM-0019</v>
       </c>
       <c r="C20" s="4">
         <v>5.6</v>
@@ -8045,7 +8045,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000020</v>
+        <v>RES-SM-0020</v>
       </c>
       <c r="C21" s="4">
         <v>6.2</v>
@@ -8072,7 +8072,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000021</v>
+        <v>RES-SM-0021</v>
       </c>
       <c r="C22" s="4">
         <v>6.8</v>
@@ -8099,7 +8099,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000022</v>
+        <v>RES-SM-0022</v>
       </c>
       <c r="C23" s="4">
         <v>7.5</v>
@@ -8126,7 +8126,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000023</v>
+        <v>RES-SM-0023</v>
       </c>
       <c r="C24" s="4">
         <v>8.1999999999999993</v>
@@ -8153,7 +8153,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000024</v>
+        <v>RES-SM-0024</v>
       </c>
       <c r="C25" s="4">
         <v>9.1</v>
@@ -8180,7 +8180,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000025</v>
+        <v>RES-SM-0025</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
@@ -8207,7 +8207,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000026</v>
+        <v>RES-SM-0026</v>
       </c>
       <c r="C27" s="4">
         <v>11</v>
@@ -8234,7 +8234,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000027</v>
+        <v>RES-SM-0027</v>
       </c>
       <c r="C28" s="4">
         <v>12</v>
@@ -8261,7 +8261,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000028</v>
+        <v>RES-SM-0028</v>
       </c>
       <c r="C29" s="4">
         <v>13</v>
@@ -8288,7 +8288,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000029</v>
+        <v>RES-SM-0029</v>
       </c>
       <c r="C30" s="4">
         <v>15</v>
@@ -8315,7 +8315,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000030</v>
+        <v>RES-SM-0030</v>
       </c>
       <c r="C31" s="4">
         <v>16</v>
@@ -8342,7 +8342,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000031</v>
+        <v>RES-SM-0031</v>
       </c>
       <c r="C32" s="4">
         <v>18</v>
@@ -8369,7 +8369,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000032</v>
+        <v>RES-SM-0032</v>
       </c>
       <c r="C33" s="4">
         <v>20</v>
@@ -8396,7 +8396,7 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000033</v>
+        <v>RES-SM-0033</v>
       </c>
       <c r="C34" s="4">
         <v>22</v>
@@ -8423,7 +8423,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000034</v>
+        <v>RES-SM-0034</v>
       </c>
       <c r="C35" s="4">
         <v>24</v>
@@ -8450,7 +8450,7 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000035</v>
+        <v>RES-SM-0035</v>
       </c>
       <c r="C36" s="4">
         <v>27</v>
@@ -8477,7 +8477,7 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000036</v>
+        <v>RES-SM-0036</v>
       </c>
       <c r="C37" s="4">
         <v>30</v>
@@ -8504,7 +8504,7 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000037</v>
+        <v>RES-SM-0037</v>
       </c>
       <c r="C38" s="4">
         <v>33</v>
@@ -8531,7 +8531,7 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000038</v>
+        <v>RES-SM-0038</v>
       </c>
       <c r="C39" s="4">
         <v>36</v>
@@ -8558,7 +8558,7 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000039</v>
+        <v>RES-SM-0039</v>
       </c>
       <c r="C40" s="4">
         <v>39</v>
@@ -8585,7 +8585,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000040</v>
+        <v>RES-SM-0040</v>
       </c>
       <c r="C41" s="4">
         <v>43</v>
@@ -8612,7 +8612,7 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000041</v>
+        <v>RES-SM-0041</v>
       </c>
       <c r="C42" s="4">
         <v>47</v>
@@ -8639,7 +8639,7 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000042</v>
+        <v>RES-SM-0042</v>
       </c>
       <c r="C43" s="4">
         <v>51</v>
@@ -8666,7 +8666,7 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000043</v>
+        <v>RES-SM-0043</v>
       </c>
       <c r="C44" s="4">
         <v>56</v>
@@ -8693,7 +8693,7 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000044</v>
+        <v>RES-SM-0044</v>
       </c>
       <c r="C45" s="4">
         <v>62</v>
@@ -8720,7 +8720,7 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000045</v>
+        <v>RES-SM-0045</v>
       </c>
       <c r="C46" s="4">
         <v>68</v>
@@ -8747,7 +8747,7 @@
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000046</v>
+        <v>RES-SM-0046</v>
       </c>
       <c r="C47" s="4">
         <v>75</v>
@@ -8774,7 +8774,7 @@
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000047</v>
+        <v>RES-SM-0047</v>
       </c>
       <c r="C48" s="4">
         <v>82</v>
@@ -8801,7 +8801,7 @@
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000048</v>
+        <v>RES-SM-0048</v>
       </c>
       <c r="C49" s="4">
         <v>91</v>
@@ -8828,7 +8828,7 @@
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000049</v>
+        <v>RES-SM-0049</v>
       </c>
       <c r="C50" s="4">
         <v>100</v>
@@ -8855,7 +8855,7 @@
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000050</v>
+        <v>RES-SM-0050</v>
       </c>
       <c r="C51" s="4">
         <v>110</v>
@@ -8882,7 +8882,7 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000051</v>
+        <v>RES-SM-0051</v>
       </c>
       <c r="C52" s="4">
         <v>120</v>
@@ -8909,7 +8909,7 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000052</v>
+        <v>RES-SM-0052</v>
       </c>
       <c r="C53" s="4">
         <v>130</v>
@@ -8936,7 +8936,7 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000053</v>
+        <v>RES-SM-0053</v>
       </c>
       <c r="C54" s="4">
         <v>150</v>
@@ -8963,7 +8963,7 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000054</v>
+        <v>RES-SM-0054</v>
       </c>
       <c r="C55" s="4">
         <v>160</v>
@@ -8990,7 +8990,7 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000055</v>
+        <v>RES-SM-0055</v>
       </c>
       <c r="C56" s="4">
         <v>180</v>
@@ -9017,7 +9017,7 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000056</v>
+        <v>RES-SM-0056</v>
       </c>
       <c r="C57" s="4">
         <v>200</v>
@@ -9044,7 +9044,7 @@
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000057</v>
+        <v>RES-SM-0057</v>
       </c>
       <c r="C58" s="4">
         <v>220</v>
@@ -9071,7 +9071,7 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000058</v>
+        <v>RES-SM-0058</v>
       </c>
       <c r="C59" s="4">
         <v>240</v>
@@ -9098,7 +9098,7 @@
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000059</v>
+        <v>RES-SM-0059</v>
       </c>
       <c r="C60" s="4">
         <v>270</v>
@@ -9125,7 +9125,7 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000060</v>
+        <v>RES-SM-0060</v>
       </c>
       <c r="C61" s="4">
         <v>300</v>
@@ -9152,7 +9152,7 @@
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000061</v>
+        <v>RES-SM-0061</v>
       </c>
       <c r="C62" s="4">
         <v>330</v>
@@ -9179,7 +9179,7 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000062</v>
+        <v>RES-SM-0062</v>
       </c>
       <c r="C63" s="4">
         <v>360</v>
@@ -9206,7 +9206,7 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000063</v>
+        <v>RES-SM-0063</v>
       </c>
       <c r="C64" s="4">
         <v>390</v>
@@ -9233,7 +9233,7 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000064</v>
+        <v>RES-SM-0064</v>
       </c>
       <c r="C65" s="4">
         <v>430</v>
@@ -9260,7 +9260,7 @@
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v>RES-SM-000065</v>
+        <v>RES-SM-0065</v>
       </c>
       <c r="C66" s="4">
         <v>470</v>
@@ -9286,8 +9286,8 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="1">"RES-SM-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-SM-000066</v>
+        <f t="shared" ref="A67:A130" si="1">"RES-SM-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-SM-0066</v>
       </c>
       <c r="C67" s="4">
         <v>510</v>
@@ -9314,7 +9314,7 @@
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000067</v>
+        <v>RES-SM-0067</v>
       </c>
       <c r="C68" s="4">
         <v>560</v>
@@ -9341,7 +9341,7 @@
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000068</v>
+        <v>RES-SM-0068</v>
       </c>
       <c r="C69" s="4">
         <v>620</v>
@@ -9368,7 +9368,7 @@
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000069</v>
+        <v>RES-SM-0069</v>
       </c>
       <c r="C70" s="4">
         <v>680</v>
@@ -9395,7 +9395,7 @@
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000070</v>
+        <v>RES-SM-0070</v>
       </c>
       <c r="C71" s="4">
         <v>750</v>
@@ -9422,7 +9422,7 @@
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000071</v>
+        <v>RES-SM-0071</v>
       </c>
       <c r="C72" s="4">
         <v>820</v>
@@ -9449,7 +9449,7 @@
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000072</v>
+        <v>RES-SM-0072</v>
       </c>
       <c r="C73" s="4">
         <v>910</v>
@@ -9476,7 +9476,7 @@
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000073</v>
+        <v>RES-SM-0073</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>16</v>
@@ -9503,7 +9503,7 @@
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000074</v>
+        <v>RES-SM-0074</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>9</v>
@@ -9530,7 +9530,7 @@
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000075</v>
+        <v>RES-SM-0075</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>10</v>
@@ -9557,7 +9557,7 @@
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000076</v>
+        <v>RES-SM-0076</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>11</v>
@@ -9584,7 +9584,7 @@
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000077</v>
+        <v>RES-SM-0077</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>12</v>
@@ -9611,7 +9611,7 @@
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000078</v>
+        <v>RES-SM-0078</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>13</v>
@@ -9638,7 +9638,7 @@
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000079</v>
+        <v>RES-SM-0079</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>14</v>
@@ -9665,7 +9665,7 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000080</v>
+        <v>RES-SM-0080</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>15</v>
@@ -9692,7 +9692,7 @@
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000081</v>
+        <v>RES-SM-0081</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>17</v>
@@ -9719,7 +9719,7 @@
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000082</v>
+        <v>RES-SM-0082</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>18</v>
@@ -9746,7 +9746,7 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000083</v>
+        <v>RES-SM-0083</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>19</v>
@@ -9773,7 +9773,7 @@
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000084</v>
+        <v>RES-SM-0084</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>20</v>
@@ -9800,7 +9800,7 @@
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000085</v>
+        <v>RES-SM-0085</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>23</v>
@@ -9827,7 +9827,7 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000086</v>
+        <v>RES-SM-0086</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>24</v>
@@ -9854,7 +9854,7 @@
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000087</v>
+        <v>RES-SM-0087</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>25</v>
@@ -9881,7 +9881,7 @@
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000088</v>
+        <v>RES-SM-0088</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>26</v>
@@ -9908,7 +9908,7 @@
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000089</v>
+        <v>RES-SM-0089</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>27</v>
@@ -9935,7 +9935,7 @@
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000090</v>
+        <v>RES-SM-0090</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>28</v>
@@ -9962,7 +9962,7 @@
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000091</v>
+        <v>RES-SM-0091</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>29</v>
@@ -9989,7 +9989,7 @@
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000092</v>
+        <v>RES-SM-0092</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>30</v>
@@ -10016,7 +10016,7 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000093</v>
+        <v>RES-SM-0093</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>31</v>
@@ -10043,7 +10043,7 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000094</v>
+        <v>RES-SM-0094</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>32</v>
@@ -10070,7 +10070,7 @@
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000095</v>
+        <v>RES-SM-0095</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>33</v>
@@ -10097,7 +10097,7 @@
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000096</v>
+        <v>RES-SM-0096</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>34</v>
@@ -10124,7 +10124,7 @@
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000097</v>
+        <v>RES-SM-0097</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>35</v>
@@ -10151,7 +10151,7 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000098</v>
+        <v>RES-SM-0098</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>36</v>
@@ -10178,7 +10178,7 @@
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000099</v>
+        <v>RES-SM-0099</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>37</v>
@@ -10205,7 +10205,7 @@
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000100</v>
+        <v>RES-SM-0100</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>38</v>
@@ -10232,7 +10232,7 @@
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000101</v>
+        <v>RES-SM-0101</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>39</v>
@@ -10259,7 +10259,7 @@
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000102</v>
+        <v>RES-SM-0102</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>40</v>
@@ -10286,7 +10286,7 @@
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000103</v>
+        <v>RES-SM-0103</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>41</v>
@@ -10313,7 +10313,7 @@
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000104</v>
+        <v>RES-SM-0104</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>42</v>
@@ -10340,7 +10340,7 @@
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000105</v>
+        <v>RES-SM-0105</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>43</v>
@@ -10367,7 +10367,7 @@
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000106</v>
+        <v>RES-SM-0106</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>44</v>
@@ -10394,7 +10394,7 @@
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000107</v>
+        <v>RES-SM-0107</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>45</v>
@@ -10421,7 +10421,7 @@
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000108</v>
+        <v>RES-SM-0108</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>46</v>
@@ -10448,7 +10448,7 @@
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000109</v>
+        <v>RES-SM-0109</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>21</v>
@@ -10475,7 +10475,7 @@
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000110</v>
+        <v>RES-SM-0110</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>22</v>
@@ -10502,7 +10502,7 @@
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000111</v>
+        <v>RES-SM-0111</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>47</v>
@@ -10529,7 +10529,7 @@
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000112</v>
+        <v>RES-SM-0112</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>48</v>
@@ -10556,7 +10556,7 @@
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000113</v>
+        <v>RES-SM-0113</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>49</v>
@@ -10583,7 +10583,7 @@
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000114</v>
+        <v>RES-SM-0114</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>50</v>
@@ -10610,7 +10610,7 @@
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000115</v>
+        <v>RES-SM-0115</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>51</v>
@@ -10637,7 +10637,7 @@
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000116</v>
+        <v>RES-SM-0116</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>52</v>
@@ -10664,7 +10664,7 @@
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000117</v>
+        <v>RES-SM-0117</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>53</v>
@@ -10691,7 +10691,7 @@
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000118</v>
+        <v>RES-SM-0118</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>54</v>
@@ -10718,7 +10718,7 @@
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000119</v>
+        <v>RES-SM-0119</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>55</v>
@@ -10745,7 +10745,7 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000120</v>
+        <v>RES-SM-0120</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>56</v>
@@ -10772,7 +10772,7 @@
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000121</v>
+        <v>RES-SM-0121</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>57</v>
@@ -10799,7 +10799,7 @@
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000122</v>
+        <v>RES-SM-0122</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>58</v>
@@ -10826,7 +10826,7 @@
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000123</v>
+        <v>RES-SM-0123</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>59</v>
@@ -10853,7 +10853,7 @@
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000124</v>
+        <v>RES-SM-0124</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>60</v>
@@ -10880,7 +10880,7 @@
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000125</v>
+        <v>RES-SM-0125</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>61</v>
@@ -10907,7 +10907,7 @@
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000126</v>
+        <v>RES-SM-0126</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>62</v>
@@ -10934,7 +10934,7 @@
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000127</v>
+        <v>RES-SM-0127</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>63</v>
@@ -10961,7 +10961,7 @@
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000128</v>
+        <v>RES-SM-0128</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>64</v>
@@ -10988,7 +10988,7 @@
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
-        <v>RES-SM-000129</v>
+        <v>RES-SM-0129</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>65</v>
@@ -11014,8 +11014,8 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A194" si="2">"RES-SM-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-SM-000130</v>
+        <f t="shared" ref="A131:A194" si="2">"RES-SM-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-SM-0130</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>66</v>
@@ -11042,7 +11042,7 @@
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000131</v>
+        <v>RES-SM-0131</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>67</v>
@@ -11069,7 +11069,7 @@
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000132</v>
+        <v>RES-SM-0132</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>68</v>
@@ -11096,7 +11096,7 @@
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000133</v>
+        <v>RES-SM-0133</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>69</v>
@@ -11123,7 +11123,7 @@
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000134</v>
+        <v>RES-SM-0134</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>70</v>
@@ -11150,7 +11150,7 @@
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000135</v>
+        <v>RES-SM-0135</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>71</v>
@@ -11177,7 +11177,7 @@
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000136</v>
+        <v>RES-SM-0136</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>72</v>
@@ -11204,7 +11204,7 @@
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000137</v>
+        <v>RES-SM-0137</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>73</v>
@@ -11231,7 +11231,7 @@
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000138</v>
+        <v>RES-SM-0138</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>74</v>
@@ -11258,7 +11258,7 @@
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000139</v>
+        <v>RES-SM-0139</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>75</v>
@@ -11285,7 +11285,7 @@
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000140</v>
+        <v>RES-SM-0140</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>76</v>
@@ -11312,7 +11312,7 @@
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000141</v>
+        <v>RES-SM-0141</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>77</v>
@@ -11339,7 +11339,7 @@
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000142</v>
+        <v>RES-SM-0142</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>78</v>
@@ -11366,7 +11366,7 @@
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000143</v>
+        <v>RES-SM-0143</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>79</v>
@@ -11393,7 +11393,7 @@
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000144</v>
+        <v>RES-SM-0144</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>80</v>
@@ -11420,7 +11420,7 @@
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000145</v>
+        <v>RES-SM-0145</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>83</v>
@@ -11447,7 +11447,7 @@
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000146</v>
+        <v>RES-SM-0146</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>81</v>
@@ -11474,7 +11474,7 @@
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000147</v>
+        <v>RES-SM-0147</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>82</v>
@@ -11501,7 +11501,7 @@
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000148</v>
+        <v>RES-SM-0148</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>84</v>
@@ -11528,7 +11528,7 @@
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000149</v>
+        <v>RES-SM-0149</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>85</v>
@@ -11555,7 +11555,7 @@
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000150</v>
+        <v>RES-SM-0150</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>86</v>
@@ -11582,7 +11582,7 @@
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000151</v>
+        <v>RES-SM-0151</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>87</v>
@@ -11609,7 +11609,7 @@
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000152</v>
+        <v>RES-SM-0152</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>88</v>
@@ -11636,7 +11636,7 @@
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000153</v>
+        <v>RES-SM-0153</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>89</v>
@@ -11663,7 +11663,7 @@
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000154</v>
+        <v>RES-SM-0154</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>90</v>
@@ -11690,7 +11690,7 @@
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000155</v>
+        <v>RES-SM-0155</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>91</v>
@@ -11717,7 +11717,7 @@
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000156</v>
+        <v>RES-SM-0156</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>92</v>
@@ -11744,7 +11744,7 @@
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000157</v>
+        <v>RES-SM-0157</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>93</v>
@@ -11771,7 +11771,7 @@
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000158</v>
+        <v>RES-SM-0158</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>94</v>
@@ -11798,7 +11798,7 @@
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000159</v>
+        <v>RES-SM-0159</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>95</v>
@@ -11825,7 +11825,7 @@
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000160</v>
+        <v>RES-SM-0160</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>96</v>
@@ -11852,7 +11852,7 @@
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000161</v>
+        <v>RES-SM-0161</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>97</v>
@@ -11879,7 +11879,7 @@
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000162</v>
+        <v>RES-SM-0162</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>98</v>
@@ -11906,7 +11906,7 @@
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000163</v>
+        <v>RES-SM-0163</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>99</v>
@@ -11933,7 +11933,7 @@
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000164</v>
+        <v>RES-SM-0164</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>100</v>
@@ -11960,7 +11960,7 @@
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000165</v>
+        <v>RES-SM-0165</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>101</v>
@@ -11987,7 +11987,7 @@
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000166</v>
+        <v>RES-SM-0166</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>102</v>
@@ -12014,7 +12014,7 @@
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000167</v>
+        <v>RES-SM-0167</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>103</v>
@@ -12041,7 +12041,7 @@
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000168</v>
+        <v>RES-SM-0168</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>104</v>
@@ -12068,7 +12068,7 @@
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000169</v>
+        <v>RES-SM-0169</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>105</v>
@@ -12095,7 +12095,7 @@
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000170</v>
+        <v>RES-SM-0170</v>
       </c>
       <c r="C171" s="4">
         <v>1</v>
@@ -12122,7 +12122,7 @@
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000171</v>
+        <v>RES-SM-0171</v>
       </c>
       <c r="C172" s="4">
         <v>1.1000000000000001</v>
@@ -12149,7 +12149,7 @@
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000172</v>
+        <v>RES-SM-0172</v>
       </c>
       <c r="C173" s="4">
         <v>1.2</v>
@@ -12176,7 +12176,7 @@
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000173</v>
+        <v>RES-SM-0173</v>
       </c>
       <c r="C174" s="4">
         <v>1.3</v>
@@ -12203,7 +12203,7 @@
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000174</v>
+        <v>RES-SM-0174</v>
       </c>
       <c r="C175" s="4">
         <v>1.5</v>
@@ -12230,7 +12230,7 @@
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000175</v>
+        <v>RES-SM-0175</v>
       </c>
       <c r="C176" s="4">
         <v>1.6</v>
@@ -12257,7 +12257,7 @@
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000176</v>
+        <v>RES-SM-0176</v>
       </c>
       <c r="C177" s="4">
         <v>1.8</v>
@@ -12284,7 +12284,7 @@
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000177</v>
+        <v>RES-SM-0177</v>
       </c>
       <c r="C178" s="4">
         <v>2</v>
@@ -12311,7 +12311,7 @@
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000178</v>
+        <v>RES-SM-0178</v>
       </c>
       <c r="C179" s="4">
         <v>2.2000000000000002</v>
@@ -12338,7 +12338,7 @@
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000179</v>
+        <v>RES-SM-0179</v>
       </c>
       <c r="C180" s="4">
         <v>2.4</v>
@@ -12365,7 +12365,7 @@
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000180</v>
+        <v>RES-SM-0180</v>
       </c>
       <c r="C181" s="4">
         <v>2.7</v>
@@ -12392,7 +12392,7 @@
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000181</v>
+        <v>RES-SM-0181</v>
       </c>
       <c r="C182" s="4">
         <v>3</v>
@@ -12419,7 +12419,7 @@
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000182</v>
+        <v>RES-SM-0182</v>
       </c>
       <c r="C183" s="4">
         <v>3.3</v>
@@ -12446,7 +12446,7 @@
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000183</v>
+        <v>RES-SM-0183</v>
       </c>
       <c r="C184" s="4">
         <v>3.6</v>
@@ -12473,7 +12473,7 @@
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000184</v>
+        <v>RES-SM-0184</v>
       </c>
       <c r="C185" s="4">
         <v>3.9</v>
@@ -12500,7 +12500,7 @@
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000185</v>
+        <v>RES-SM-0185</v>
       </c>
       <c r="C186" s="4">
         <v>4.3</v>
@@ -12527,7 +12527,7 @@
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000186</v>
+        <v>RES-SM-0186</v>
       </c>
       <c r="C187" s="4">
         <v>4.7</v>
@@ -12554,7 +12554,7 @@
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000187</v>
+        <v>RES-SM-0187</v>
       </c>
       <c r="C188" s="4">
         <v>5.0999999999999996</v>
@@ -12581,7 +12581,7 @@
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000188</v>
+        <v>RES-SM-0188</v>
       </c>
       <c r="C189" s="4">
         <v>5.6</v>
@@ -12608,7 +12608,7 @@
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000189</v>
+        <v>RES-SM-0189</v>
       </c>
       <c r="C190" s="4">
         <v>6.2</v>
@@ -12635,7 +12635,7 @@
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000190</v>
+        <v>RES-SM-0190</v>
       </c>
       <c r="C191" s="4">
         <v>6.8</v>
@@ -12662,7 +12662,7 @@
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000191</v>
+        <v>RES-SM-0191</v>
       </c>
       <c r="C192" s="4">
         <v>7.5</v>
@@ -12689,7 +12689,7 @@
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000192</v>
+        <v>RES-SM-0192</v>
       </c>
       <c r="C193" s="4">
         <v>8.1999999999999993</v>
@@ -12716,7 +12716,7 @@
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" si="2"/>
-        <v>RES-SM-000193</v>
+        <v>RES-SM-0193</v>
       </c>
       <c r="C194" s="4">
         <v>9.1</v>
@@ -12742,8 +12742,8 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
-        <f t="shared" ref="A195:A258" si="3">"RES-SM-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-SM-000194</v>
+        <f t="shared" ref="A195:A258" si="3">"RES-SM-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-SM-0194</v>
       </c>
       <c r="C195" s="4">
         <v>10</v>
@@ -12770,7 +12770,7 @@
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000195</v>
+        <v>RES-SM-0195</v>
       </c>
       <c r="C196" s="4">
         <v>11</v>
@@ -12797,7 +12797,7 @@
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000196</v>
+        <v>RES-SM-0196</v>
       </c>
       <c r="C197" s="4">
         <v>12</v>
@@ -12824,7 +12824,7 @@
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000197</v>
+        <v>RES-SM-0197</v>
       </c>
       <c r="C198" s="4">
         <v>13</v>
@@ -12851,7 +12851,7 @@
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000198</v>
+        <v>RES-SM-0198</v>
       </c>
       <c r="C199" s="4">
         <v>15</v>
@@ -12878,7 +12878,7 @@
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000199</v>
+        <v>RES-SM-0199</v>
       </c>
       <c r="C200" s="4">
         <v>16</v>
@@ -12905,7 +12905,7 @@
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000200</v>
+        <v>RES-SM-0200</v>
       </c>
       <c r="C201" s="4">
         <v>18</v>
@@ -12932,7 +12932,7 @@
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000201</v>
+        <v>RES-SM-0201</v>
       </c>
       <c r="C202" s="4">
         <v>20</v>
@@ -12959,7 +12959,7 @@
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000202</v>
+        <v>RES-SM-0202</v>
       </c>
       <c r="C203" s="4">
         <v>22</v>
@@ -12986,7 +12986,7 @@
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000203</v>
+        <v>RES-SM-0203</v>
       </c>
       <c r="C204" s="4">
         <v>24</v>
@@ -13013,7 +13013,7 @@
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000204</v>
+        <v>RES-SM-0204</v>
       </c>
       <c r="C205" s="4">
         <v>27</v>
@@ -13040,7 +13040,7 @@
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000205</v>
+        <v>RES-SM-0205</v>
       </c>
       <c r="C206" s="4">
         <v>30</v>
@@ -13067,7 +13067,7 @@
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000206</v>
+        <v>RES-SM-0206</v>
       </c>
       <c r="C207" s="4">
         <v>33</v>
@@ -13094,7 +13094,7 @@
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000207</v>
+        <v>RES-SM-0207</v>
       </c>
       <c r="C208" s="4">
         <v>36</v>
@@ -13121,7 +13121,7 @@
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000208</v>
+        <v>RES-SM-0208</v>
       </c>
       <c r="C209" s="4">
         <v>39</v>
@@ -13148,7 +13148,7 @@
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000209</v>
+        <v>RES-SM-0209</v>
       </c>
       <c r="C210" s="4">
         <v>43</v>
@@ -13175,7 +13175,7 @@
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000210</v>
+        <v>RES-SM-0210</v>
       </c>
       <c r="C211" s="4">
         <v>47</v>
@@ -13202,7 +13202,7 @@
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000211</v>
+        <v>RES-SM-0211</v>
       </c>
       <c r="C212" s="4">
         <v>51</v>
@@ -13229,7 +13229,7 @@
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000212</v>
+        <v>RES-SM-0212</v>
       </c>
       <c r="C213" s="4">
         <v>56</v>
@@ -13256,7 +13256,7 @@
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000213</v>
+        <v>RES-SM-0213</v>
       </c>
       <c r="C214" s="4">
         <v>62</v>
@@ -13283,7 +13283,7 @@
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000214</v>
+        <v>RES-SM-0214</v>
       </c>
       <c r="C215" s="4">
         <v>68</v>
@@ -13310,7 +13310,7 @@
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000215</v>
+        <v>RES-SM-0215</v>
       </c>
       <c r="C216" s="4">
         <v>75</v>
@@ -13337,7 +13337,7 @@
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000216</v>
+        <v>RES-SM-0216</v>
       </c>
       <c r="C217" s="4">
         <v>82</v>
@@ -13364,7 +13364,7 @@
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000217</v>
+        <v>RES-SM-0217</v>
       </c>
       <c r="C218" s="4">
         <v>91</v>
@@ -13391,7 +13391,7 @@
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000218</v>
+        <v>RES-SM-0218</v>
       </c>
       <c r="C219" s="4">
         <v>100</v>
@@ -13418,7 +13418,7 @@
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000219</v>
+        <v>RES-SM-0219</v>
       </c>
       <c r="C220" s="4">
         <v>110</v>
@@ -13445,7 +13445,7 @@
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000220</v>
+        <v>RES-SM-0220</v>
       </c>
       <c r="C221" s="4">
         <v>120</v>
@@ -13472,7 +13472,7 @@
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000221</v>
+        <v>RES-SM-0221</v>
       </c>
       <c r="C222" s="4">
         <v>130</v>
@@ -13499,7 +13499,7 @@
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000222</v>
+        <v>RES-SM-0222</v>
       </c>
       <c r="C223" s="4">
         <v>150</v>
@@ -13526,7 +13526,7 @@
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000223</v>
+        <v>RES-SM-0223</v>
       </c>
       <c r="C224" s="4">
         <v>160</v>
@@ -13553,7 +13553,7 @@
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000224</v>
+        <v>RES-SM-0224</v>
       </c>
       <c r="C225" s="4">
         <v>180</v>
@@ -13580,7 +13580,7 @@
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000225</v>
+        <v>RES-SM-0225</v>
       </c>
       <c r="C226" s="4">
         <v>200</v>
@@ -13607,7 +13607,7 @@
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000226</v>
+        <v>RES-SM-0226</v>
       </c>
       <c r="C227" s="4">
         <v>220</v>
@@ -13634,7 +13634,7 @@
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000227</v>
+        <v>RES-SM-0227</v>
       </c>
       <c r="C228" s="4">
         <v>240</v>
@@ -13661,7 +13661,7 @@
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000228</v>
+        <v>RES-SM-0228</v>
       </c>
       <c r="C229" s="4">
         <v>270</v>
@@ -13688,7 +13688,7 @@
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000229</v>
+        <v>RES-SM-0229</v>
       </c>
       <c r="C230" s="4">
         <v>300</v>
@@ -13715,7 +13715,7 @@
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000230</v>
+        <v>RES-SM-0230</v>
       </c>
       <c r="C231" s="4">
         <v>330</v>
@@ -13742,7 +13742,7 @@
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000231</v>
+        <v>RES-SM-0231</v>
       </c>
       <c r="C232" s="4">
         <v>360</v>
@@ -13769,7 +13769,7 @@
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000232</v>
+        <v>RES-SM-0232</v>
       </c>
       <c r="C233" s="4">
         <v>390</v>
@@ -13796,7 +13796,7 @@
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000233</v>
+        <v>RES-SM-0233</v>
       </c>
       <c r="C234" s="4">
         <v>430</v>
@@ -13823,7 +13823,7 @@
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000234</v>
+        <v>RES-SM-0234</v>
       </c>
       <c r="C235" s="4">
         <v>470</v>
@@ -13850,7 +13850,7 @@
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000235</v>
+        <v>RES-SM-0235</v>
       </c>
       <c r="C236" s="4">
         <v>510</v>
@@ -13877,7 +13877,7 @@
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000236</v>
+        <v>RES-SM-0236</v>
       </c>
       <c r="C237" s="4">
         <v>560</v>
@@ -13904,7 +13904,7 @@
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000237</v>
+        <v>RES-SM-0237</v>
       </c>
       <c r="C238" s="4">
         <v>620</v>
@@ -13931,7 +13931,7 @@
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000238</v>
+        <v>RES-SM-0238</v>
       </c>
       <c r="C239" s="4">
         <v>680</v>
@@ -13958,7 +13958,7 @@
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000239</v>
+        <v>RES-SM-0239</v>
       </c>
       <c r="C240" s="4">
         <v>750</v>
@@ -13985,7 +13985,7 @@
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000240</v>
+        <v>RES-SM-0240</v>
       </c>
       <c r="C241" s="4">
         <v>820</v>
@@ -14012,7 +14012,7 @@
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000241</v>
+        <v>RES-SM-0241</v>
       </c>
       <c r="C242" s="4">
         <v>910</v>
@@ -14039,7 +14039,7 @@
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000242</v>
+        <v>RES-SM-0242</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>16</v>
@@ -14066,7 +14066,7 @@
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000243</v>
+        <v>RES-SM-0243</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>9</v>
@@ -14093,7 +14093,7 @@
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000244</v>
+        <v>RES-SM-0244</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>10</v>
@@ -14120,7 +14120,7 @@
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000245</v>
+        <v>RES-SM-0245</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>11</v>
@@ -14147,7 +14147,7 @@
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000246</v>
+        <v>RES-SM-0246</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>12</v>
@@ -14174,7 +14174,7 @@
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000247</v>
+        <v>RES-SM-0247</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>13</v>
@@ -14201,7 +14201,7 @@
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000248</v>
+        <v>RES-SM-0248</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>14</v>
@@ -14228,7 +14228,7 @@
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000249</v>
+        <v>RES-SM-0249</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>15</v>
@@ -14255,7 +14255,7 @@
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000250</v>
+        <v>RES-SM-0250</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>17</v>
@@ -14282,7 +14282,7 @@
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000251</v>
+        <v>RES-SM-0251</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>18</v>
@@ -14309,7 +14309,7 @@
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000252</v>
+        <v>RES-SM-0252</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>19</v>
@@ -14336,7 +14336,7 @@
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000253</v>
+        <v>RES-SM-0253</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>20</v>
@@ -14363,7 +14363,7 @@
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000254</v>
+        <v>RES-SM-0254</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>23</v>
@@ -14390,7 +14390,7 @@
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000255</v>
+        <v>RES-SM-0255</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>24</v>
@@ -14417,7 +14417,7 @@
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000256</v>
+        <v>RES-SM-0256</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>25</v>
@@ -14444,7 +14444,7 @@
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
         <f t="shared" si="3"/>
-        <v>RES-SM-000257</v>
+        <v>RES-SM-0257</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>26</v>
@@ -14470,8 +14470,8 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
-        <f t="shared" ref="A259:A322" si="4">"RES-SM-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-SM-000258</v>
+        <f t="shared" ref="A259:A322" si="4">"RES-SM-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-SM-0258</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>27</v>
@@ -14498,7 +14498,7 @@
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000259</v>
+        <v>RES-SM-0259</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>28</v>
@@ -14525,7 +14525,7 @@
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000260</v>
+        <v>RES-SM-0260</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>29</v>
@@ -14552,7 +14552,7 @@
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000261</v>
+        <v>RES-SM-0261</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>30</v>
@@ -14579,7 +14579,7 @@
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000262</v>
+        <v>RES-SM-0262</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>31</v>
@@ -14606,7 +14606,7 @@
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000263</v>
+        <v>RES-SM-0263</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>32</v>
@@ -14633,7 +14633,7 @@
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000264</v>
+        <v>RES-SM-0264</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>33</v>
@@ -14660,7 +14660,7 @@
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000265</v>
+        <v>RES-SM-0265</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>34</v>
@@ -14687,7 +14687,7 @@
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000266</v>
+        <v>RES-SM-0266</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>35</v>
@@ -14714,7 +14714,7 @@
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000267</v>
+        <v>RES-SM-0267</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>36</v>
@@ -14741,7 +14741,7 @@
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000268</v>
+        <v>RES-SM-0268</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>37</v>
@@ -14768,7 +14768,7 @@
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000269</v>
+        <v>RES-SM-0269</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>38</v>
@@ -14795,7 +14795,7 @@
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000270</v>
+        <v>RES-SM-0270</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>39</v>
@@ -14822,7 +14822,7 @@
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000271</v>
+        <v>RES-SM-0271</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>40</v>
@@ -14849,7 +14849,7 @@
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000272</v>
+        <v>RES-SM-0272</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>41</v>
@@ -14876,7 +14876,7 @@
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000273</v>
+        <v>RES-SM-0273</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>42</v>
@@ -14903,7 +14903,7 @@
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000274</v>
+        <v>RES-SM-0274</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>43</v>
@@ -14930,7 +14930,7 @@
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000275</v>
+        <v>RES-SM-0275</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>44</v>
@@ -14957,7 +14957,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000276</v>
+        <v>RES-SM-0276</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>45</v>
@@ -14984,7 +14984,7 @@
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000277</v>
+        <v>RES-SM-0277</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>46</v>
@@ -15011,7 +15011,7 @@
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000278</v>
+        <v>RES-SM-0278</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>21</v>
@@ -15038,7 +15038,7 @@
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000279</v>
+        <v>RES-SM-0279</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>22</v>
@@ -15065,7 +15065,7 @@
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000280</v>
+        <v>RES-SM-0280</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>47</v>
@@ -15092,7 +15092,7 @@
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000281</v>
+        <v>RES-SM-0281</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>48</v>
@@ -15119,7 +15119,7 @@
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000282</v>
+        <v>RES-SM-0282</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>49</v>
@@ -15146,7 +15146,7 @@
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000283</v>
+        <v>RES-SM-0283</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>50</v>
@@ -15173,7 +15173,7 @@
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000284</v>
+        <v>RES-SM-0284</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>51</v>
@@ -15200,7 +15200,7 @@
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000285</v>
+        <v>RES-SM-0285</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>52</v>
@@ -15227,7 +15227,7 @@
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000286</v>
+        <v>RES-SM-0286</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>53</v>
@@ -15254,7 +15254,7 @@
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000287</v>
+        <v>RES-SM-0287</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>54</v>
@@ -15281,7 +15281,7 @@
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000288</v>
+        <v>RES-SM-0288</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>55</v>
@@ -15308,7 +15308,7 @@
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000289</v>
+        <v>RES-SM-0289</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>56</v>
@@ -15335,7 +15335,7 @@
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000290</v>
+        <v>RES-SM-0290</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>57</v>
@@ -15362,7 +15362,7 @@
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000291</v>
+        <v>RES-SM-0291</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>58</v>
@@ -15389,7 +15389,7 @@
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000292</v>
+        <v>RES-SM-0292</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>59</v>
@@ -15416,7 +15416,7 @@
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000293</v>
+        <v>RES-SM-0293</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>60</v>
@@ -15443,7 +15443,7 @@
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000294</v>
+        <v>RES-SM-0294</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>61</v>
@@ -15470,7 +15470,7 @@
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000295</v>
+        <v>RES-SM-0295</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>62</v>
@@ -15497,7 +15497,7 @@
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000296</v>
+        <v>RES-SM-0296</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>63</v>
@@ -15524,7 +15524,7 @@
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000297</v>
+        <v>RES-SM-0297</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>64</v>
@@ -15551,7 +15551,7 @@
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000298</v>
+        <v>RES-SM-0298</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>65</v>
@@ -15578,7 +15578,7 @@
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000299</v>
+        <v>RES-SM-0299</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>66</v>
@@ -15605,7 +15605,7 @@
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000300</v>
+        <v>RES-SM-0300</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>67</v>
@@ -15632,7 +15632,7 @@
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000301</v>
+        <v>RES-SM-0301</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>68</v>
@@ -15659,7 +15659,7 @@
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000302</v>
+        <v>RES-SM-0302</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>69</v>
@@ -15686,7 +15686,7 @@
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000303</v>
+        <v>RES-SM-0303</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>70</v>
@@ -15713,7 +15713,7 @@
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000304</v>
+        <v>RES-SM-0304</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>71</v>
@@ -15740,7 +15740,7 @@
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000305</v>
+        <v>RES-SM-0305</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>72</v>
@@ -15767,7 +15767,7 @@
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000306</v>
+        <v>RES-SM-0306</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>73</v>
@@ -15794,7 +15794,7 @@
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000307</v>
+        <v>RES-SM-0307</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>74</v>
@@ -15821,7 +15821,7 @@
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000308</v>
+        <v>RES-SM-0308</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>75</v>
@@ -15848,7 +15848,7 @@
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000309</v>
+        <v>RES-SM-0309</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>76</v>
@@ -15875,7 +15875,7 @@
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000310</v>
+        <v>RES-SM-0310</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>77</v>
@@ -15902,7 +15902,7 @@
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000311</v>
+        <v>RES-SM-0311</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>78</v>
@@ -15929,7 +15929,7 @@
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000312</v>
+        <v>RES-SM-0312</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>79</v>
@@ -15956,7 +15956,7 @@
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000313</v>
+        <v>RES-SM-0313</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>80</v>
@@ -15983,7 +15983,7 @@
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000314</v>
+        <v>RES-SM-0314</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>83</v>
@@ -16010,7 +16010,7 @@
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000315</v>
+        <v>RES-SM-0315</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>81</v>
@@ -16037,7 +16037,7 @@
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000316</v>
+        <v>RES-SM-0316</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>82</v>
@@ -16064,7 +16064,7 @@
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000317</v>
+        <v>RES-SM-0317</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>84</v>
@@ -16091,7 +16091,7 @@
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000318</v>
+        <v>RES-SM-0318</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>85</v>
@@ -16118,7 +16118,7 @@
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000319</v>
+        <v>RES-SM-0319</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>86</v>
@@ -16145,7 +16145,7 @@
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000320</v>
+        <v>RES-SM-0320</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>87</v>
@@ -16172,7 +16172,7 @@
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
         <f t="shared" si="4"/>
-        <v>RES-SM-000321</v>
+        <v>RES-SM-0321</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>88</v>
@@ -16198,8 +16198,8 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
-        <f t="shared" ref="A323:A386" si="5">"RES-SM-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-SM-000322</v>
+        <f t="shared" ref="A323:A386" si="5">"RES-SM-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-SM-0322</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>89</v>
@@ -16226,7 +16226,7 @@
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000323</v>
+        <v>RES-SM-0323</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>90</v>
@@ -16253,7 +16253,7 @@
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000324</v>
+        <v>RES-SM-0324</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>91</v>
@@ -16280,7 +16280,7 @@
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000325</v>
+        <v>RES-SM-0325</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>92</v>
@@ -16307,7 +16307,7 @@
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000326</v>
+        <v>RES-SM-0326</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>93</v>
@@ -16334,7 +16334,7 @@
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000327</v>
+        <v>RES-SM-0327</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>94</v>
@@ -16361,7 +16361,7 @@
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000328</v>
+        <v>RES-SM-0328</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>95</v>
@@ -16388,7 +16388,7 @@
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000329</v>
+        <v>RES-SM-0329</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>96</v>
@@ -16415,7 +16415,7 @@
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000330</v>
+        <v>RES-SM-0330</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>97</v>
@@ -16442,7 +16442,7 @@
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000331</v>
+        <v>RES-SM-0331</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>98</v>
@@ -16469,7 +16469,7 @@
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000332</v>
+        <v>RES-SM-0332</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>99</v>
@@ -16496,7 +16496,7 @@
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000333</v>
+        <v>RES-SM-0333</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>100</v>
@@ -16523,7 +16523,7 @@
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000334</v>
+        <v>RES-SM-0334</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>101</v>
@@ -16550,7 +16550,7 @@
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000335</v>
+        <v>RES-SM-0335</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>102</v>
@@ -16577,7 +16577,7 @@
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000336</v>
+        <v>RES-SM-0336</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>103</v>
@@ -16604,7 +16604,7 @@
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000337</v>
+        <v>RES-SM-0337</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>104</v>
@@ -16631,7 +16631,7 @@
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000338</v>
+        <v>RES-SM-0338</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>105</v>
@@ -16658,7 +16658,7 @@
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000339</v>
+        <v>RES-SM-0339</v>
       </c>
       <c r="C340" s="4">
         <v>1</v>
@@ -16685,7 +16685,7 @@
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000340</v>
+        <v>RES-SM-0340</v>
       </c>
       <c r="C341" s="4">
         <v>1.1000000000000001</v>
@@ -16712,7 +16712,7 @@
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000341</v>
+        <v>RES-SM-0341</v>
       </c>
       <c r="C342" s="4">
         <v>1.2</v>
@@ -16739,7 +16739,7 @@
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000342</v>
+        <v>RES-SM-0342</v>
       </c>
       <c r="C343" s="4">
         <v>1.3</v>
@@ -16766,7 +16766,7 @@
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000343</v>
+        <v>RES-SM-0343</v>
       </c>
       <c r="C344" s="4">
         <v>1.5</v>
@@ -16793,7 +16793,7 @@
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000344</v>
+        <v>RES-SM-0344</v>
       </c>
       <c r="C345" s="4">
         <v>1.6</v>
@@ -16820,7 +16820,7 @@
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000345</v>
+        <v>RES-SM-0345</v>
       </c>
       <c r="C346" s="4">
         <v>1.8</v>
@@ -16847,7 +16847,7 @@
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000346</v>
+        <v>RES-SM-0346</v>
       </c>
       <c r="C347" s="4">
         <v>2</v>
@@ -16874,7 +16874,7 @@
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000347</v>
+        <v>RES-SM-0347</v>
       </c>
       <c r="C348" s="4">
         <v>2.2000000000000002</v>
@@ -16901,7 +16901,7 @@
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000348</v>
+        <v>RES-SM-0348</v>
       </c>
       <c r="C349" s="4">
         <v>2.4</v>
@@ -16928,7 +16928,7 @@
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000349</v>
+        <v>RES-SM-0349</v>
       </c>
       <c r="C350" s="4">
         <v>2.7</v>
@@ -16955,7 +16955,7 @@
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000350</v>
+        <v>RES-SM-0350</v>
       </c>
       <c r="C351" s="4">
         <v>3</v>
@@ -16982,7 +16982,7 @@
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000351</v>
+        <v>RES-SM-0351</v>
       </c>
       <c r="C352" s="4">
         <v>3.3</v>
@@ -17009,7 +17009,7 @@
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000352</v>
+        <v>RES-SM-0352</v>
       </c>
       <c r="C353" s="4">
         <v>3.6</v>
@@ -17036,7 +17036,7 @@
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000353</v>
+        <v>RES-SM-0353</v>
       </c>
       <c r="C354" s="4">
         <v>3.9</v>
@@ -17063,7 +17063,7 @@
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000354</v>
+        <v>RES-SM-0354</v>
       </c>
       <c r="C355" s="4">
         <v>4.3</v>
@@ -17090,7 +17090,7 @@
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000355</v>
+        <v>RES-SM-0355</v>
       </c>
       <c r="C356" s="4">
         <v>4.7</v>
@@ -17117,7 +17117,7 @@
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000356</v>
+        <v>RES-SM-0356</v>
       </c>
       <c r="C357" s="4">
         <v>5.0999999999999996</v>
@@ -17144,7 +17144,7 @@
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000357</v>
+        <v>RES-SM-0357</v>
       </c>
       <c r="C358" s="4">
         <v>5.6</v>
@@ -17171,7 +17171,7 @@
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000358</v>
+        <v>RES-SM-0358</v>
       </c>
       <c r="C359" s="4">
         <v>6.2</v>
@@ -17198,7 +17198,7 @@
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000359</v>
+        <v>RES-SM-0359</v>
       </c>
       <c r="C360" s="4">
         <v>6.8</v>
@@ -17225,7 +17225,7 @@
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000360</v>
+        <v>RES-SM-0360</v>
       </c>
       <c r="C361" s="4">
         <v>7.5</v>
@@ -17252,7 +17252,7 @@
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000361</v>
+        <v>RES-SM-0361</v>
       </c>
       <c r="C362" s="4">
         <v>8.1999999999999993</v>
@@ -17279,7 +17279,7 @@
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000362</v>
+        <v>RES-SM-0362</v>
       </c>
       <c r="C363" s="4">
         <v>9.1</v>
@@ -17306,7 +17306,7 @@
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000363</v>
+        <v>RES-SM-0363</v>
       </c>
       <c r="C364" s="4">
         <v>10</v>
@@ -17333,7 +17333,7 @@
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000364</v>
+        <v>RES-SM-0364</v>
       </c>
       <c r="C365" s="4">
         <v>11</v>
@@ -17360,7 +17360,7 @@
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000365</v>
+        <v>RES-SM-0365</v>
       </c>
       <c r="C366" s="4">
         <v>12</v>
@@ -17387,7 +17387,7 @@
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000366</v>
+        <v>RES-SM-0366</v>
       </c>
       <c r="C367" s="4">
         <v>13</v>
@@ -17414,7 +17414,7 @@
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000367</v>
+        <v>RES-SM-0367</v>
       </c>
       <c r="C368" s="4">
         <v>15</v>
@@ -17441,7 +17441,7 @@
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000368</v>
+        <v>RES-SM-0368</v>
       </c>
       <c r="C369" s="4">
         <v>16</v>
@@ -17468,7 +17468,7 @@
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000369</v>
+        <v>RES-SM-0369</v>
       </c>
       <c r="C370" s="4">
         <v>18</v>
@@ -17495,7 +17495,7 @@
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000370</v>
+        <v>RES-SM-0370</v>
       </c>
       <c r="C371" s="4">
         <v>20</v>
@@ -17522,7 +17522,7 @@
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000371</v>
+        <v>RES-SM-0371</v>
       </c>
       <c r="C372" s="4">
         <v>22</v>
@@ -17549,7 +17549,7 @@
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000372</v>
+        <v>RES-SM-0372</v>
       </c>
       <c r="C373" s="4">
         <v>24</v>
@@ -17576,7 +17576,7 @@
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000373</v>
+        <v>RES-SM-0373</v>
       </c>
       <c r="C374" s="4">
         <v>27</v>
@@ -17603,7 +17603,7 @@
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000374</v>
+        <v>RES-SM-0374</v>
       </c>
       <c r="C375" s="4">
         <v>30</v>
@@ -17630,7 +17630,7 @@
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000375</v>
+        <v>RES-SM-0375</v>
       </c>
       <c r="C376" s="4">
         <v>33</v>
@@ -17657,7 +17657,7 @@
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000376</v>
+        <v>RES-SM-0376</v>
       </c>
       <c r="C377" s="4">
         <v>36</v>
@@ -17684,7 +17684,7 @@
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000377</v>
+        <v>RES-SM-0377</v>
       </c>
       <c r="C378" s="4">
         <v>39</v>
@@ -17711,7 +17711,7 @@
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000378</v>
+        <v>RES-SM-0378</v>
       </c>
       <c r="C379" s="4">
         <v>43</v>
@@ -17738,7 +17738,7 @@
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000379</v>
+        <v>RES-SM-0379</v>
       </c>
       <c r="C380" s="4">
         <v>47</v>
@@ -17765,7 +17765,7 @@
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000380</v>
+        <v>RES-SM-0380</v>
       </c>
       <c r="C381" s="4">
         <v>51</v>
@@ -17792,7 +17792,7 @@
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000381</v>
+        <v>RES-SM-0381</v>
       </c>
       <c r="C382" s="4">
         <v>56</v>
@@ -17819,7 +17819,7 @@
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000382</v>
+        <v>RES-SM-0382</v>
       </c>
       <c r="C383" s="4">
         <v>62</v>
@@ -17846,7 +17846,7 @@
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000383</v>
+        <v>RES-SM-0383</v>
       </c>
       <c r="C384" s="4">
         <v>68</v>
@@ -17873,7 +17873,7 @@
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000384</v>
+        <v>RES-SM-0384</v>
       </c>
       <c r="C385" s="4">
         <v>75</v>
@@ -17900,7 +17900,7 @@
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="str">
         <f t="shared" si="5"/>
-        <v>RES-SM-000385</v>
+        <v>RES-SM-0385</v>
       </c>
       <c r="C386" s="4">
         <v>82</v>
@@ -17926,8 +17926,8 @@
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="str">
-        <f t="shared" ref="A387:A450" si="6">"RES-SM-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-SM-000386</v>
+        <f t="shared" ref="A387:A450" si="6">"RES-SM-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-SM-0386</v>
       </c>
       <c r="C387" s="4">
         <v>91</v>
@@ -17954,7 +17954,7 @@
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000387</v>
+        <v>RES-SM-0387</v>
       </c>
       <c r="C388" s="4">
         <v>100</v>
@@ -17981,7 +17981,7 @@
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000388</v>
+        <v>RES-SM-0388</v>
       </c>
       <c r="C389" s="4">
         <v>110</v>
@@ -18008,7 +18008,7 @@
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000389</v>
+        <v>RES-SM-0389</v>
       </c>
       <c r="C390" s="4">
         <v>120</v>
@@ -18035,7 +18035,7 @@
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000390</v>
+        <v>RES-SM-0390</v>
       </c>
       <c r="C391" s="4">
         <v>130</v>
@@ -18062,7 +18062,7 @@
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000391</v>
+        <v>RES-SM-0391</v>
       </c>
       <c r="C392" s="4">
         <v>150</v>
@@ -18089,7 +18089,7 @@
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000392</v>
+        <v>RES-SM-0392</v>
       </c>
       <c r="C393" s="4">
         <v>160</v>
@@ -18116,7 +18116,7 @@
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000393</v>
+        <v>RES-SM-0393</v>
       </c>
       <c r="C394" s="4">
         <v>180</v>
@@ -18143,7 +18143,7 @@
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000394</v>
+        <v>RES-SM-0394</v>
       </c>
       <c r="C395" s="4">
         <v>200</v>
@@ -18170,7 +18170,7 @@
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000395</v>
+        <v>RES-SM-0395</v>
       </c>
       <c r="C396" s="4">
         <v>220</v>
@@ -18197,7 +18197,7 @@
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000396</v>
+        <v>RES-SM-0396</v>
       </c>
       <c r="C397" s="4">
         <v>240</v>
@@ -18224,7 +18224,7 @@
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000397</v>
+        <v>RES-SM-0397</v>
       </c>
       <c r="C398" s="4">
         <v>270</v>
@@ -18251,7 +18251,7 @@
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000398</v>
+        <v>RES-SM-0398</v>
       </c>
       <c r="C399" s="4">
         <v>300</v>
@@ -18278,7 +18278,7 @@
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000399</v>
+        <v>RES-SM-0399</v>
       </c>
       <c r="C400" s="4">
         <v>330</v>
@@ -18305,7 +18305,7 @@
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000400</v>
+        <v>RES-SM-0400</v>
       </c>
       <c r="C401" s="4">
         <v>360</v>
@@ -18332,7 +18332,7 @@
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000401</v>
+        <v>RES-SM-0401</v>
       </c>
       <c r="C402" s="4">
         <v>390</v>
@@ -18359,7 +18359,7 @@
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000402</v>
+        <v>RES-SM-0402</v>
       </c>
       <c r="C403" s="4">
         <v>430</v>
@@ -18386,7 +18386,7 @@
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000403</v>
+        <v>RES-SM-0403</v>
       </c>
       <c r="C404" s="4">
         <v>470</v>
@@ -18413,7 +18413,7 @@
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000404</v>
+        <v>RES-SM-0404</v>
       </c>
       <c r="C405" s="4">
         <v>510</v>
@@ -18440,7 +18440,7 @@
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000405</v>
+        <v>RES-SM-0405</v>
       </c>
       <c r="C406" s="4">
         <v>560</v>
@@ -18467,7 +18467,7 @@
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000406</v>
+        <v>RES-SM-0406</v>
       </c>
       <c r="C407" s="4">
         <v>620</v>
@@ -18494,7 +18494,7 @@
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000407</v>
+        <v>RES-SM-0407</v>
       </c>
       <c r="C408" s="4">
         <v>680</v>
@@ -18521,7 +18521,7 @@
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000408</v>
+        <v>RES-SM-0408</v>
       </c>
       <c r="C409" s="4">
         <v>750</v>
@@ -18548,7 +18548,7 @@
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000409</v>
+        <v>RES-SM-0409</v>
       </c>
       <c r="C410" s="4">
         <v>820</v>
@@ -18575,7 +18575,7 @@
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000410</v>
+        <v>RES-SM-0410</v>
       </c>
       <c r="C411" s="4">
         <v>910</v>
@@ -18602,7 +18602,7 @@
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000411</v>
+        <v>RES-SM-0411</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>16</v>
@@ -18629,7 +18629,7 @@
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000412</v>
+        <v>RES-SM-0412</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>9</v>
@@ -18656,7 +18656,7 @@
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000413</v>
+        <v>RES-SM-0413</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>10</v>
@@ -18683,7 +18683,7 @@
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000414</v>
+        <v>RES-SM-0414</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>11</v>
@@ -18710,7 +18710,7 @@
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000415</v>
+        <v>RES-SM-0415</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>12</v>
@@ -18737,7 +18737,7 @@
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000416</v>
+        <v>RES-SM-0416</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>13</v>
@@ -18764,7 +18764,7 @@
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000417</v>
+        <v>RES-SM-0417</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>14</v>
@@ -18791,7 +18791,7 @@
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000418</v>
+        <v>RES-SM-0418</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>15</v>
@@ -18818,7 +18818,7 @@
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000419</v>
+        <v>RES-SM-0419</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>17</v>
@@ -18845,7 +18845,7 @@
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000420</v>
+        <v>RES-SM-0420</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>18</v>
@@ -18872,7 +18872,7 @@
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000421</v>
+        <v>RES-SM-0421</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>19</v>
@@ -18899,7 +18899,7 @@
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000422</v>
+        <v>RES-SM-0422</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>20</v>
@@ -18926,7 +18926,7 @@
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000423</v>
+        <v>RES-SM-0423</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>23</v>
@@ -18953,7 +18953,7 @@
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000424</v>
+        <v>RES-SM-0424</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>24</v>
@@ -18980,7 +18980,7 @@
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000425</v>
+        <v>RES-SM-0425</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>25</v>
@@ -19007,7 +19007,7 @@
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000426</v>
+        <v>RES-SM-0426</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>26</v>
@@ -19034,7 +19034,7 @@
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000427</v>
+        <v>RES-SM-0427</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>27</v>
@@ -19061,7 +19061,7 @@
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000428</v>
+        <v>RES-SM-0428</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>28</v>
@@ -19088,7 +19088,7 @@
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000429</v>
+        <v>RES-SM-0429</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>29</v>
@@ -19115,7 +19115,7 @@
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000430</v>
+        <v>RES-SM-0430</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>30</v>
@@ -19142,7 +19142,7 @@
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000431</v>
+        <v>RES-SM-0431</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>31</v>
@@ -19169,7 +19169,7 @@
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000432</v>
+        <v>RES-SM-0432</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>32</v>
@@ -19196,7 +19196,7 @@
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000433</v>
+        <v>RES-SM-0433</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>33</v>
@@ -19223,7 +19223,7 @@
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000434</v>
+        <v>RES-SM-0434</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>34</v>
@@ -19250,7 +19250,7 @@
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000435</v>
+        <v>RES-SM-0435</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>35</v>
@@ -19277,7 +19277,7 @@
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000436</v>
+        <v>RES-SM-0436</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>36</v>
@@ -19304,7 +19304,7 @@
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000437</v>
+        <v>RES-SM-0437</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>37</v>
@@ -19331,7 +19331,7 @@
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000438</v>
+        <v>RES-SM-0438</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>38</v>
@@ -19358,7 +19358,7 @@
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000439</v>
+        <v>RES-SM-0439</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>39</v>
@@ -19385,7 +19385,7 @@
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000440</v>
+        <v>RES-SM-0440</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>40</v>
@@ -19412,7 +19412,7 @@
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000441</v>
+        <v>RES-SM-0441</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>41</v>
@@ -19439,7 +19439,7 @@
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000442</v>
+        <v>RES-SM-0442</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>42</v>
@@ -19466,7 +19466,7 @@
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000443</v>
+        <v>RES-SM-0443</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>43</v>
@@ -19493,7 +19493,7 @@
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000444</v>
+        <v>RES-SM-0444</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>44</v>
@@ -19520,7 +19520,7 @@
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000445</v>
+        <v>RES-SM-0445</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>45</v>
@@ -19547,7 +19547,7 @@
     <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000446</v>
+        <v>RES-SM-0446</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>46</v>
@@ -19574,7 +19574,7 @@
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000447</v>
+        <v>RES-SM-0447</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>21</v>
@@ -19601,7 +19601,7 @@
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000448</v>
+        <v>RES-SM-0448</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>22</v>
@@ -19628,7 +19628,7 @@
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" t="str">
         <f t="shared" si="6"/>
-        <v>RES-SM-000449</v>
+        <v>RES-SM-0449</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>47</v>
@@ -19654,8 +19654,8 @@
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" t="str">
-        <f t="shared" ref="A451:A514" si="7">"RES-SM-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-SM-000450</v>
+        <f t="shared" ref="A451:A514" si="7">"RES-SM-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-SM-0450</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>48</v>
@@ -19682,7 +19682,7 @@
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000451</v>
+        <v>RES-SM-0451</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>49</v>
@@ -19709,7 +19709,7 @@
     <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000452</v>
+        <v>RES-SM-0452</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>50</v>
@@ -19736,7 +19736,7 @@
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000453</v>
+        <v>RES-SM-0453</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>51</v>
@@ -19763,7 +19763,7 @@
     <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000454</v>
+        <v>RES-SM-0454</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>52</v>
@@ -19790,7 +19790,7 @@
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000455</v>
+        <v>RES-SM-0455</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>53</v>
@@ -19817,7 +19817,7 @@
     <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000456</v>
+        <v>RES-SM-0456</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>54</v>
@@ -19844,7 +19844,7 @@
     <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000457</v>
+        <v>RES-SM-0457</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>55</v>
@@ -19871,7 +19871,7 @@
     <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000458</v>
+        <v>RES-SM-0458</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>56</v>
@@ -19898,7 +19898,7 @@
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000459</v>
+        <v>RES-SM-0459</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>57</v>
@@ -19925,7 +19925,7 @@
     <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000460</v>
+        <v>RES-SM-0460</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>58</v>
@@ -19952,7 +19952,7 @@
     <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000461</v>
+        <v>RES-SM-0461</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>59</v>
@@ -19979,7 +19979,7 @@
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000462</v>
+        <v>RES-SM-0462</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>60</v>
@@ -20006,7 +20006,7 @@
     <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000463</v>
+        <v>RES-SM-0463</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>61</v>
@@ -20033,7 +20033,7 @@
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000464</v>
+        <v>RES-SM-0464</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>62</v>
@@ -20060,7 +20060,7 @@
     <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000465</v>
+        <v>RES-SM-0465</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>63</v>
@@ -20087,7 +20087,7 @@
     <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000466</v>
+        <v>RES-SM-0466</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>64</v>
@@ -20114,7 +20114,7 @@
     <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000467</v>
+        <v>RES-SM-0467</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>65</v>
@@ -20141,7 +20141,7 @@
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000468</v>
+        <v>RES-SM-0468</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>66</v>
@@ -20168,7 +20168,7 @@
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000469</v>
+        <v>RES-SM-0469</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>67</v>
@@ -20195,7 +20195,7 @@
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000470</v>
+        <v>RES-SM-0470</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>68</v>
@@ -20222,7 +20222,7 @@
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000471</v>
+        <v>RES-SM-0471</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>69</v>
@@ -20249,7 +20249,7 @@
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000472</v>
+        <v>RES-SM-0472</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>70</v>
@@ -20276,7 +20276,7 @@
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000473</v>
+        <v>RES-SM-0473</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>71</v>
@@ -20303,7 +20303,7 @@
     <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000474</v>
+        <v>RES-SM-0474</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>72</v>
@@ -20330,7 +20330,7 @@
     <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000475</v>
+        <v>RES-SM-0475</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>73</v>
@@ -20357,7 +20357,7 @@
     <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000476</v>
+        <v>RES-SM-0476</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>74</v>
@@ -20384,7 +20384,7 @@
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000477</v>
+        <v>RES-SM-0477</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>75</v>
@@ -20411,7 +20411,7 @@
     <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000478</v>
+        <v>RES-SM-0478</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>76</v>
@@ -20438,7 +20438,7 @@
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000479</v>
+        <v>RES-SM-0479</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>77</v>
@@ -20465,7 +20465,7 @@
     <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000480</v>
+        <v>RES-SM-0480</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>78</v>
@@ -20492,7 +20492,7 @@
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000481</v>
+        <v>RES-SM-0481</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>79</v>
@@ -20519,7 +20519,7 @@
     <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000482</v>
+        <v>RES-SM-0482</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>80</v>
@@ -20546,7 +20546,7 @@
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000483</v>
+        <v>RES-SM-0483</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>83</v>
@@ -20573,7 +20573,7 @@
     <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000484</v>
+        <v>RES-SM-0484</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>81</v>
@@ -20600,7 +20600,7 @@
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000485</v>
+        <v>RES-SM-0485</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>82</v>
@@ -20627,7 +20627,7 @@
     <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000486</v>
+        <v>RES-SM-0486</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>84</v>
@@ -20654,7 +20654,7 @@
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000487</v>
+        <v>RES-SM-0487</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>85</v>
@@ -20681,7 +20681,7 @@
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000488</v>
+        <v>RES-SM-0488</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>86</v>
@@ -20708,7 +20708,7 @@
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000489</v>
+        <v>RES-SM-0489</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>87</v>
@@ -20735,7 +20735,7 @@
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000490</v>
+        <v>RES-SM-0490</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>88</v>
@@ -20762,7 +20762,7 @@
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000491</v>
+        <v>RES-SM-0491</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>89</v>
@@ -20789,7 +20789,7 @@
     <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000492</v>
+        <v>RES-SM-0492</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>90</v>
@@ -20816,7 +20816,7 @@
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000493</v>
+        <v>RES-SM-0493</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>91</v>
@@ -20843,7 +20843,7 @@
     <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000494</v>
+        <v>RES-SM-0494</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>92</v>
@@ -20870,7 +20870,7 @@
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000495</v>
+        <v>RES-SM-0495</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>93</v>
@@ -20897,7 +20897,7 @@
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000496</v>
+        <v>RES-SM-0496</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>94</v>
@@ -20924,7 +20924,7 @@
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000497</v>
+        <v>RES-SM-0497</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>95</v>
@@ -20951,7 +20951,7 @@
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000498</v>
+        <v>RES-SM-0498</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>96</v>
@@ -20978,7 +20978,7 @@
     <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000499</v>
+        <v>RES-SM-0499</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>97</v>
@@ -21005,7 +21005,7 @@
     <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000500</v>
+        <v>RES-SM-0500</v>
       </c>
       <c r="C501" s="4" t="s">
         <v>98</v>
@@ -21032,7 +21032,7 @@
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000501</v>
+        <v>RES-SM-0501</v>
       </c>
       <c r="C502" s="4" t="s">
         <v>99</v>
@@ -21059,7 +21059,7 @@
     <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000502</v>
+        <v>RES-SM-0502</v>
       </c>
       <c r="C503" s="4" t="s">
         <v>100</v>
@@ -21086,7 +21086,7 @@
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000503</v>
+        <v>RES-SM-0503</v>
       </c>
       <c r="C504" s="4" t="s">
         <v>101</v>
@@ -21113,7 +21113,7 @@
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000504</v>
+        <v>RES-SM-0504</v>
       </c>
       <c r="C505" s="4" t="s">
         <v>102</v>
@@ -21140,7 +21140,7 @@
     <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000505</v>
+        <v>RES-SM-0505</v>
       </c>
       <c r="C506" s="4" t="s">
         <v>103</v>
@@ -21167,7 +21167,7 @@
     <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000506</v>
+        <v>RES-SM-0506</v>
       </c>
       <c r="C507" s="4" t="s">
         <v>104</v>
@@ -21194,7 +21194,7 @@
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000507</v>
+        <v>RES-SM-0507</v>
       </c>
       <c r="C508" s="4" t="s">
         <v>105</v>
@@ -21221,7 +21221,7 @@
     <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000508</v>
+        <v>RES-SM-0508</v>
       </c>
       <c r="C509" s="4">
         <v>1</v>
@@ -21248,7 +21248,7 @@
     <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000509</v>
+        <v>RES-SM-0509</v>
       </c>
       <c r="C510" s="4">
         <v>1.1000000000000001</v>
@@ -21275,7 +21275,7 @@
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000510</v>
+        <v>RES-SM-0510</v>
       </c>
       <c r="C511" s="4">
         <v>1.2</v>
@@ -21302,7 +21302,7 @@
     <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000511</v>
+        <v>RES-SM-0511</v>
       </c>
       <c r="C512" s="4">
         <v>1.3</v>
@@ -21329,7 +21329,7 @@
     <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000512</v>
+        <v>RES-SM-0512</v>
       </c>
       <c r="C513" s="4">
         <v>1.5</v>
@@ -21356,7 +21356,7 @@
     <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" t="str">
         <f t="shared" si="7"/>
-        <v>RES-SM-000513</v>
+        <v>RES-SM-0513</v>
       </c>
       <c r="C514" s="4">
         <v>1.6</v>
@@ -21382,8 +21382,8 @@
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" t="str">
-        <f t="shared" ref="A515:A578" si="8">"RES-SM-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-SM-000514</v>
+        <f t="shared" ref="A515:A578" si="8">"RES-SM-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-SM-0514</v>
       </c>
       <c r="C515" s="4">
         <v>1.8</v>
@@ -21410,7 +21410,7 @@
     <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000515</v>
+        <v>RES-SM-0515</v>
       </c>
       <c r="C516" s="4">
         <v>2</v>
@@ -21437,7 +21437,7 @@
     <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000516</v>
+        <v>RES-SM-0516</v>
       </c>
       <c r="C517" s="4">
         <v>2.2000000000000002</v>
@@ -21464,7 +21464,7 @@
     <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000517</v>
+        <v>RES-SM-0517</v>
       </c>
       <c r="C518" s="4">
         <v>2.4</v>
@@ -21491,7 +21491,7 @@
     <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000518</v>
+        <v>RES-SM-0518</v>
       </c>
       <c r="C519" s="4">
         <v>2.7</v>
@@ -21518,7 +21518,7 @@
     <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000519</v>
+        <v>RES-SM-0519</v>
       </c>
       <c r="C520" s="4">
         <v>3</v>
@@ -21545,7 +21545,7 @@
     <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000520</v>
+        <v>RES-SM-0520</v>
       </c>
       <c r="C521" s="4">
         <v>3.3</v>
@@ -21572,7 +21572,7 @@
     <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000521</v>
+        <v>RES-SM-0521</v>
       </c>
       <c r="C522" s="4">
         <v>3.6</v>
@@ -21599,7 +21599,7 @@
     <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000522</v>
+        <v>RES-SM-0522</v>
       </c>
       <c r="C523" s="4">
         <v>3.9</v>
@@ -21626,7 +21626,7 @@
     <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000523</v>
+        <v>RES-SM-0523</v>
       </c>
       <c r="C524" s="4">
         <v>4.3</v>
@@ -21653,7 +21653,7 @@
     <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000524</v>
+        <v>RES-SM-0524</v>
       </c>
       <c r="C525" s="4">
         <v>4.7</v>
@@ -21680,7 +21680,7 @@
     <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000525</v>
+        <v>RES-SM-0525</v>
       </c>
       <c r="C526" s="4">
         <v>5.0999999999999996</v>
@@ -21707,7 +21707,7 @@
     <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000526</v>
+        <v>RES-SM-0526</v>
       </c>
       <c r="C527" s="4">
         <v>5.6</v>
@@ -21734,7 +21734,7 @@
     <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000527</v>
+        <v>RES-SM-0527</v>
       </c>
       <c r="C528" s="4">
         <v>6.2</v>
@@ -21761,7 +21761,7 @@
     <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000528</v>
+        <v>RES-SM-0528</v>
       </c>
       <c r="C529" s="4">
         <v>6.8</v>
@@ -21788,7 +21788,7 @@
     <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000529</v>
+        <v>RES-SM-0529</v>
       </c>
       <c r="C530" s="4">
         <v>7.5</v>
@@ -21815,7 +21815,7 @@
     <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000530</v>
+        <v>RES-SM-0530</v>
       </c>
       <c r="C531" s="4">
         <v>8.1999999999999993</v>
@@ -21842,7 +21842,7 @@
     <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000531</v>
+        <v>RES-SM-0531</v>
       </c>
       <c r="C532" s="4">
         <v>9.1</v>
@@ -21869,7 +21869,7 @@
     <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000532</v>
+        <v>RES-SM-0532</v>
       </c>
       <c r="C533" s="4">
         <v>10</v>
@@ -21896,7 +21896,7 @@
     <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000533</v>
+        <v>RES-SM-0533</v>
       </c>
       <c r="C534" s="4">
         <v>11</v>
@@ -21923,7 +21923,7 @@
     <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000534</v>
+        <v>RES-SM-0534</v>
       </c>
       <c r="C535" s="4">
         <v>12</v>
@@ -21950,7 +21950,7 @@
     <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000535</v>
+        <v>RES-SM-0535</v>
       </c>
       <c r="C536" s="4">
         <v>13</v>
@@ -21977,7 +21977,7 @@
     <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000536</v>
+        <v>RES-SM-0536</v>
       </c>
       <c r="C537" s="4">
         <v>15</v>
@@ -22004,7 +22004,7 @@
     <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000537</v>
+        <v>RES-SM-0537</v>
       </c>
       <c r="C538" s="4">
         <v>16</v>
@@ -22031,7 +22031,7 @@
     <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000538</v>
+        <v>RES-SM-0538</v>
       </c>
       <c r="C539" s="4">
         <v>18</v>
@@ -22058,7 +22058,7 @@
     <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000539</v>
+        <v>RES-SM-0539</v>
       </c>
       <c r="C540" s="4">
         <v>20</v>
@@ -22085,7 +22085,7 @@
     <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000540</v>
+        <v>RES-SM-0540</v>
       </c>
       <c r="C541" s="4">
         <v>22</v>
@@ -22112,7 +22112,7 @@
     <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000541</v>
+        <v>RES-SM-0541</v>
       </c>
       <c r="C542" s="4">
         <v>24</v>
@@ -22139,7 +22139,7 @@
     <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000542</v>
+        <v>RES-SM-0542</v>
       </c>
       <c r="C543" s="4">
         <v>27</v>
@@ -22166,7 +22166,7 @@
     <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000543</v>
+        <v>RES-SM-0543</v>
       </c>
       <c r="C544" s="4">
         <v>30</v>
@@ -22193,7 +22193,7 @@
     <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000544</v>
+        <v>RES-SM-0544</v>
       </c>
       <c r="C545" s="4">
         <v>33</v>
@@ -22220,7 +22220,7 @@
     <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000545</v>
+        <v>RES-SM-0545</v>
       </c>
       <c r="C546" s="4">
         <v>36</v>
@@ -22247,7 +22247,7 @@
     <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000546</v>
+        <v>RES-SM-0546</v>
       </c>
       <c r="C547" s="4">
         <v>39</v>
@@ -22274,7 +22274,7 @@
     <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000547</v>
+        <v>RES-SM-0547</v>
       </c>
       <c r="C548" s="4">
         <v>43</v>
@@ -22301,7 +22301,7 @@
     <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000548</v>
+        <v>RES-SM-0548</v>
       </c>
       <c r="C549" s="4">
         <v>47</v>
@@ -22328,7 +22328,7 @@
     <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000549</v>
+        <v>RES-SM-0549</v>
       </c>
       <c r="C550" s="4">
         <v>51</v>
@@ -22355,7 +22355,7 @@
     <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000550</v>
+        <v>RES-SM-0550</v>
       </c>
       <c r="C551" s="4">
         <v>56</v>
@@ -22382,7 +22382,7 @@
     <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000551</v>
+        <v>RES-SM-0551</v>
       </c>
       <c r="C552" s="4">
         <v>62</v>
@@ -22409,7 +22409,7 @@
     <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000552</v>
+        <v>RES-SM-0552</v>
       </c>
       <c r="C553" s="4">
         <v>68</v>
@@ -22436,7 +22436,7 @@
     <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000553</v>
+        <v>RES-SM-0553</v>
       </c>
       <c r="C554" s="4">
         <v>75</v>
@@ -22463,7 +22463,7 @@
     <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000554</v>
+        <v>RES-SM-0554</v>
       </c>
       <c r="C555" s="4">
         <v>82</v>
@@ -22490,7 +22490,7 @@
     <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000555</v>
+        <v>RES-SM-0555</v>
       </c>
       <c r="C556" s="4">
         <v>91</v>
@@ -22517,7 +22517,7 @@
     <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000556</v>
+        <v>RES-SM-0556</v>
       </c>
       <c r="C557" s="4">
         <v>100</v>
@@ -22544,7 +22544,7 @@
     <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000557</v>
+        <v>RES-SM-0557</v>
       </c>
       <c r="C558" s="4">
         <v>110</v>
@@ -22571,7 +22571,7 @@
     <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000558</v>
+        <v>RES-SM-0558</v>
       </c>
       <c r="C559" s="4">
         <v>120</v>
@@ -22598,7 +22598,7 @@
     <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000559</v>
+        <v>RES-SM-0559</v>
       </c>
       <c r="C560" s="4">
         <v>130</v>
@@ -22625,7 +22625,7 @@
     <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000560</v>
+        <v>RES-SM-0560</v>
       </c>
       <c r="C561" s="4">
         <v>150</v>
@@ -22652,7 +22652,7 @@
     <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000561</v>
+        <v>RES-SM-0561</v>
       </c>
       <c r="C562" s="4">
         <v>160</v>
@@ -22679,7 +22679,7 @@
     <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000562</v>
+        <v>RES-SM-0562</v>
       </c>
       <c r="C563" s="4">
         <v>180</v>
@@ -22706,7 +22706,7 @@
     <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000563</v>
+        <v>RES-SM-0563</v>
       </c>
       <c r="C564" s="4">
         <v>200</v>
@@ -22733,7 +22733,7 @@
     <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000564</v>
+        <v>RES-SM-0564</v>
       </c>
       <c r="C565" s="4">
         <v>220</v>
@@ -22760,7 +22760,7 @@
     <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000565</v>
+        <v>RES-SM-0565</v>
       </c>
       <c r="C566" s="4">
         <v>240</v>
@@ -22787,7 +22787,7 @@
     <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000566</v>
+        <v>RES-SM-0566</v>
       </c>
       <c r="C567" s="4">
         <v>270</v>
@@ -22814,7 +22814,7 @@
     <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000567</v>
+        <v>RES-SM-0567</v>
       </c>
       <c r="C568" s="4">
         <v>300</v>
@@ -22841,7 +22841,7 @@
     <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000568</v>
+        <v>RES-SM-0568</v>
       </c>
       <c r="C569" s="4">
         <v>330</v>
@@ -22868,7 +22868,7 @@
     <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000569</v>
+        <v>RES-SM-0569</v>
       </c>
       <c r="C570" s="4">
         <v>360</v>
@@ -22895,7 +22895,7 @@
     <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000570</v>
+        <v>RES-SM-0570</v>
       </c>
       <c r="C571" s="4">
         <v>390</v>
@@ -22922,7 +22922,7 @@
     <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000571</v>
+        <v>RES-SM-0571</v>
       </c>
       <c r="C572" s="4">
         <v>430</v>
@@ -22949,7 +22949,7 @@
     <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000572</v>
+        <v>RES-SM-0572</v>
       </c>
       <c r="C573" s="4">
         <v>470</v>
@@ -22976,7 +22976,7 @@
     <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000573</v>
+        <v>RES-SM-0573</v>
       </c>
       <c r="C574" s="4">
         <v>510</v>
@@ -23003,7 +23003,7 @@
     <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000574</v>
+        <v>RES-SM-0574</v>
       </c>
       <c r="C575" s="4">
         <v>560</v>
@@ -23030,7 +23030,7 @@
     <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000575</v>
+        <v>RES-SM-0575</v>
       </c>
       <c r="C576" s="4">
         <v>620</v>
@@ -23057,7 +23057,7 @@
     <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000576</v>
+        <v>RES-SM-0576</v>
       </c>
       <c r="C577" s="4">
         <v>680</v>
@@ -23084,7 +23084,7 @@
     <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" t="str">
         <f t="shared" si="8"/>
-        <v>RES-SM-000577</v>
+        <v>RES-SM-0577</v>
       </c>
       <c r="C578" s="4">
         <v>750</v>
@@ -23110,8 +23110,8 @@
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579" t="str">
-        <f t="shared" ref="A579:A642" si="9">"RES-SM-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-SM-000578</v>
+        <f t="shared" ref="A579:A642" si="9">"RES-SM-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-SM-0578</v>
       </c>
       <c r="C579" s="4">
         <v>820</v>
@@ -23138,7 +23138,7 @@
     <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000579</v>
+        <v>RES-SM-0579</v>
       </c>
       <c r="C580" s="4">
         <v>910</v>
@@ -23165,7 +23165,7 @@
     <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000580</v>
+        <v>RES-SM-0580</v>
       </c>
       <c r="C581" s="4" t="s">
         <v>16</v>
@@ -23192,7 +23192,7 @@
     <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000581</v>
+        <v>RES-SM-0581</v>
       </c>
       <c r="C582" s="4" t="s">
         <v>9</v>
@@ -23219,7 +23219,7 @@
     <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000582</v>
+        <v>RES-SM-0582</v>
       </c>
       <c r="C583" s="4" t="s">
         <v>10</v>
@@ -23246,7 +23246,7 @@
     <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000583</v>
+        <v>RES-SM-0583</v>
       </c>
       <c r="C584" s="4" t="s">
         <v>11</v>
@@ -23273,7 +23273,7 @@
     <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000584</v>
+        <v>RES-SM-0584</v>
       </c>
       <c r="C585" s="4" t="s">
         <v>12</v>
@@ -23300,7 +23300,7 @@
     <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000585</v>
+        <v>RES-SM-0585</v>
       </c>
       <c r="C586" s="4" t="s">
         <v>13</v>
@@ -23327,7 +23327,7 @@
     <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000586</v>
+        <v>RES-SM-0586</v>
       </c>
       <c r="C587" s="4" t="s">
         <v>14</v>
@@ -23354,7 +23354,7 @@
     <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000587</v>
+        <v>RES-SM-0587</v>
       </c>
       <c r="C588" s="4" t="s">
         <v>15</v>
@@ -23381,7 +23381,7 @@
     <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000588</v>
+        <v>RES-SM-0588</v>
       </c>
       <c r="C589" s="4" t="s">
         <v>17</v>
@@ -23408,7 +23408,7 @@
     <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000589</v>
+        <v>RES-SM-0589</v>
       </c>
       <c r="C590" s="4" t="s">
         <v>18</v>
@@ -23435,7 +23435,7 @@
     <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000590</v>
+        <v>RES-SM-0590</v>
       </c>
       <c r="C591" s="4" t="s">
         <v>19</v>
@@ -23462,7 +23462,7 @@
     <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000591</v>
+        <v>RES-SM-0591</v>
       </c>
       <c r="C592" s="4" t="s">
         <v>20</v>
@@ -23489,7 +23489,7 @@
     <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000592</v>
+        <v>RES-SM-0592</v>
       </c>
       <c r="C593" s="4" t="s">
         <v>23</v>
@@ -23516,7 +23516,7 @@
     <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000593</v>
+        <v>RES-SM-0593</v>
       </c>
       <c r="C594" s="4" t="s">
         <v>24</v>
@@ -23543,7 +23543,7 @@
     <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000594</v>
+        <v>RES-SM-0594</v>
       </c>
       <c r="C595" s="4" t="s">
         <v>25</v>
@@ -23570,7 +23570,7 @@
     <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000595</v>
+        <v>RES-SM-0595</v>
       </c>
       <c r="C596" s="4" t="s">
         <v>26</v>
@@ -23597,7 +23597,7 @@
     <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000596</v>
+        <v>RES-SM-0596</v>
       </c>
       <c r="C597" s="4" t="s">
         <v>27</v>
@@ -23624,7 +23624,7 @@
     <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000597</v>
+        <v>RES-SM-0597</v>
       </c>
       <c r="C598" s="4" t="s">
         <v>28</v>
@@ -23651,7 +23651,7 @@
     <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000598</v>
+        <v>RES-SM-0598</v>
       </c>
       <c r="C599" s="4" t="s">
         <v>29</v>
@@ -23678,7 +23678,7 @@
     <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000599</v>
+        <v>RES-SM-0599</v>
       </c>
       <c r="C600" s="4" t="s">
         <v>30</v>
@@ -23705,7 +23705,7 @@
     <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000600</v>
+        <v>RES-SM-0600</v>
       </c>
       <c r="C601" s="4" t="s">
         <v>31</v>
@@ -23732,7 +23732,7 @@
     <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000601</v>
+        <v>RES-SM-0601</v>
       </c>
       <c r="C602" s="4" t="s">
         <v>32</v>
@@ -23759,7 +23759,7 @@
     <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000602</v>
+        <v>RES-SM-0602</v>
       </c>
       <c r="C603" s="4" t="s">
         <v>33</v>
@@ -23786,7 +23786,7 @@
     <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000603</v>
+        <v>RES-SM-0603</v>
       </c>
       <c r="C604" s="4" t="s">
         <v>34</v>
@@ -23813,7 +23813,7 @@
     <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000604</v>
+        <v>RES-SM-0604</v>
       </c>
       <c r="C605" s="4" t="s">
         <v>35</v>
@@ -23840,7 +23840,7 @@
     <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000605</v>
+        <v>RES-SM-0605</v>
       </c>
       <c r="C606" s="4" t="s">
         <v>36</v>
@@ -23867,7 +23867,7 @@
     <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000606</v>
+        <v>RES-SM-0606</v>
       </c>
       <c r="C607" s="4" t="s">
         <v>37</v>
@@ -23894,7 +23894,7 @@
     <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000607</v>
+        <v>RES-SM-0607</v>
       </c>
       <c r="C608" s="4" t="s">
         <v>38</v>
@@ -23921,7 +23921,7 @@
     <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000608</v>
+        <v>RES-SM-0608</v>
       </c>
       <c r="C609" s="4" t="s">
         <v>39</v>
@@ -23948,7 +23948,7 @@
     <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000609</v>
+        <v>RES-SM-0609</v>
       </c>
       <c r="C610" s="4" t="s">
         <v>40</v>
@@ -23975,7 +23975,7 @@
     <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000610</v>
+        <v>RES-SM-0610</v>
       </c>
       <c r="C611" s="4" t="s">
         <v>41</v>
@@ -24002,7 +24002,7 @@
     <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000611</v>
+        <v>RES-SM-0611</v>
       </c>
       <c r="C612" s="4" t="s">
         <v>42</v>
@@ -24029,7 +24029,7 @@
     <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000612</v>
+        <v>RES-SM-0612</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>43</v>
@@ -24056,7 +24056,7 @@
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000613</v>
+        <v>RES-SM-0613</v>
       </c>
       <c r="C614" s="4" t="s">
         <v>44</v>
@@ -24083,7 +24083,7 @@
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000614</v>
+        <v>RES-SM-0614</v>
       </c>
       <c r="C615" s="4" t="s">
         <v>45</v>
@@ -24110,7 +24110,7 @@
     <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000615</v>
+        <v>RES-SM-0615</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>46</v>
@@ -24137,7 +24137,7 @@
     <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000616</v>
+        <v>RES-SM-0616</v>
       </c>
       <c r="C617" s="4" t="s">
         <v>21</v>
@@ -24164,7 +24164,7 @@
     <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000617</v>
+        <v>RES-SM-0617</v>
       </c>
       <c r="C618" s="4" t="s">
         <v>22</v>
@@ -24191,7 +24191,7 @@
     <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000618</v>
+        <v>RES-SM-0618</v>
       </c>
       <c r="C619" s="4" t="s">
         <v>47</v>
@@ -24218,7 +24218,7 @@
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000619</v>
+        <v>RES-SM-0619</v>
       </c>
       <c r="C620" s="4" t="s">
         <v>48</v>
@@ -24245,7 +24245,7 @@
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000620</v>
+        <v>RES-SM-0620</v>
       </c>
       <c r="C621" s="4" t="s">
         <v>49</v>
@@ -24272,7 +24272,7 @@
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000621</v>
+        <v>RES-SM-0621</v>
       </c>
       <c r="C622" s="4" t="s">
         <v>50</v>
@@ -24299,7 +24299,7 @@
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000622</v>
+        <v>RES-SM-0622</v>
       </c>
       <c r="C623" s="4" t="s">
         <v>51</v>
@@ -24326,7 +24326,7 @@
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000623</v>
+        <v>RES-SM-0623</v>
       </c>
       <c r="C624" s="4" t="s">
         <v>52</v>
@@ -24353,7 +24353,7 @@
     <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000624</v>
+        <v>RES-SM-0624</v>
       </c>
       <c r="C625" s="4" t="s">
         <v>53</v>
@@ -24380,7 +24380,7 @@
     <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000625</v>
+        <v>RES-SM-0625</v>
       </c>
       <c r="C626" s="4" t="s">
         <v>54</v>
@@ -24407,7 +24407,7 @@
     <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000626</v>
+        <v>RES-SM-0626</v>
       </c>
       <c r="C627" s="4" t="s">
         <v>55</v>
@@ -24434,7 +24434,7 @@
     <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000627</v>
+        <v>RES-SM-0627</v>
       </c>
       <c r="C628" s="4" t="s">
         <v>56</v>
@@ -24461,7 +24461,7 @@
     <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000628</v>
+        <v>RES-SM-0628</v>
       </c>
       <c r="C629" s="4" t="s">
         <v>57</v>
@@ -24488,7 +24488,7 @@
     <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000629</v>
+        <v>RES-SM-0629</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>58</v>
@@ -24515,7 +24515,7 @@
     <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000630</v>
+        <v>RES-SM-0630</v>
       </c>
       <c r="C631" s="4" t="s">
         <v>59</v>
@@ -24542,7 +24542,7 @@
     <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000631</v>
+        <v>RES-SM-0631</v>
       </c>
       <c r="C632" s="4" t="s">
         <v>60</v>
@@ -24569,7 +24569,7 @@
     <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000632</v>
+        <v>RES-SM-0632</v>
       </c>
       <c r="C633" s="4" t="s">
         <v>61</v>
@@ -24596,7 +24596,7 @@
     <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000633</v>
+        <v>RES-SM-0633</v>
       </c>
       <c r="C634" s="4" t="s">
         <v>62</v>
@@ -24623,7 +24623,7 @@
     <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000634</v>
+        <v>RES-SM-0634</v>
       </c>
       <c r="C635" s="4" t="s">
         <v>63</v>
@@ -24650,7 +24650,7 @@
     <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000635</v>
+        <v>RES-SM-0635</v>
       </c>
       <c r="C636" s="4" t="s">
         <v>64</v>
@@ -24677,7 +24677,7 @@
     <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000636</v>
+        <v>RES-SM-0636</v>
       </c>
       <c r="C637" s="4" t="s">
         <v>65</v>
@@ -24704,7 +24704,7 @@
     <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000637</v>
+        <v>RES-SM-0637</v>
       </c>
       <c r="C638" s="4" t="s">
         <v>66</v>
@@ -24731,7 +24731,7 @@
     <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000638</v>
+        <v>RES-SM-0638</v>
       </c>
       <c r="C639" s="4" t="s">
         <v>67</v>
@@ -24758,7 +24758,7 @@
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000639</v>
+        <v>RES-SM-0639</v>
       </c>
       <c r="C640" s="4" t="s">
         <v>68</v>
@@ -24785,7 +24785,7 @@
     <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000640</v>
+        <v>RES-SM-0640</v>
       </c>
       <c r="C641" s="4" t="s">
         <v>69</v>
@@ -24812,7 +24812,7 @@
     <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642" t="str">
         <f t="shared" si="9"/>
-        <v>RES-SM-000641</v>
+        <v>RES-SM-0641</v>
       </c>
       <c r="C642" s="4" t="s">
         <v>70</v>
@@ -24838,8 +24838,8 @@
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643" t="str">
-        <f t="shared" ref="A643:A677" si="10">"RES-SM-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-SM-000642</v>
+        <f t="shared" ref="A643:A677" si="10">"RES-SM-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>RES-SM-0642</v>
       </c>
       <c r="C643" s="4" t="s">
         <v>71</v>
@@ -24866,7 +24866,7 @@
     <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000643</v>
+        <v>RES-SM-0643</v>
       </c>
       <c r="C644" s="4" t="s">
         <v>72</v>
@@ -24893,7 +24893,7 @@
     <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000644</v>
+        <v>RES-SM-0644</v>
       </c>
       <c r="C645" s="4" t="s">
         <v>73</v>
@@ -24920,7 +24920,7 @@
     <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000645</v>
+        <v>RES-SM-0645</v>
       </c>
       <c r="C646" s="4" t="s">
         <v>74</v>
@@ -24947,7 +24947,7 @@
     <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000646</v>
+        <v>RES-SM-0646</v>
       </c>
       <c r="C647" s="4" t="s">
         <v>75</v>
@@ -24974,7 +24974,7 @@
     <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000647</v>
+        <v>RES-SM-0647</v>
       </c>
       <c r="C648" s="4" t="s">
         <v>76</v>
@@ -25001,7 +25001,7 @@
     <row r="649" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A649" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000648</v>
+        <v>RES-SM-0648</v>
       </c>
       <c r="C649" s="4" t="s">
         <v>77</v>
@@ -25028,7 +25028,7 @@
     <row r="650" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A650" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000649</v>
+        <v>RES-SM-0649</v>
       </c>
       <c r="C650" s="4" t="s">
         <v>78</v>
@@ -25055,7 +25055,7 @@
     <row r="651" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A651" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000650</v>
+        <v>RES-SM-0650</v>
       </c>
       <c r="C651" s="4" t="s">
         <v>79</v>
@@ -25082,7 +25082,7 @@
     <row r="652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A652" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000651</v>
+        <v>RES-SM-0651</v>
       </c>
       <c r="C652" s="4" t="s">
         <v>80</v>
@@ -25109,7 +25109,7 @@
     <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000652</v>
+        <v>RES-SM-0652</v>
       </c>
       <c r="C653" s="4" t="s">
         <v>83</v>
@@ -25136,7 +25136,7 @@
     <row r="654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A654" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000653</v>
+        <v>RES-SM-0653</v>
       </c>
       <c r="C654" s="4" t="s">
         <v>81</v>
@@ -25163,7 +25163,7 @@
     <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000654</v>
+        <v>RES-SM-0654</v>
       </c>
       <c r="C655" s="4" t="s">
         <v>82</v>
@@ -25190,7 +25190,7 @@
     <row r="656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A656" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000655</v>
+        <v>RES-SM-0655</v>
       </c>
       <c r="C656" s="4" t="s">
         <v>84</v>
@@ -25217,7 +25217,7 @@
     <row r="657" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A657" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000656</v>
+        <v>RES-SM-0656</v>
       </c>
       <c r="C657" s="4" t="s">
         <v>85</v>
@@ -25244,7 +25244,7 @@
     <row r="658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A658" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000657</v>
+        <v>RES-SM-0657</v>
       </c>
       <c r="C658" s="4" t="s">
         <v>86</v>
@@ -25271,7 +25271,7 @@
     <row r="659" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A659" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000658</v>
+        <v>RES-SM-0658</v>
       </c>
       <c r="C659" s="4" t="s">
         <v>87</v>
@@ -25298,7 +25298,7 @@
     <row r="660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A660" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000659</v>
+        <v>RES-SM-0659</v>
       </c>
       <c r="C660" s="4" t="s">
         <v>88</v>
@@ -25325,7 +25325,7 @@
     <row r="661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A661" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000660</v>
+        <v>RES-SM-0660</v>
       </c>
       <c r="C661" s="4" t="s">
         <v>89</v>
@@ -25352,7 +25352,7 @@
     <row r="662" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A662" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000661</v>
+        <v>RES-SM-0661</v>
       </c>
       <c r="C662" s="4" t="s">
         <v>90</v>
@@ -25379,7 +25379,7 @@
     <row r="663" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A663" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000662</v>
+        <v>RES-SM-0662</v>
       </c>
       <c r="C663" s="4" t="s">
         <v>91</v>
@@ -25406,7 +25406,7 @@
     <row r="664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A664" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000663</v>
+        <v>RES-SM-0663</v>
       </c>
       <c r="C664" s="4" t="s">
         <v>92</v>
@@ -25433,7 +25433,7 @@
     <row r="665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A665" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000664</v>
+        <v>RES-SM-0664</v>
       </c>
       <c r="C665" s="4" t="s">
         <v>93</v>
@@ -25460,7 +25460,7 @@
     <row r="666" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A666" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000665</v>
+        <v>RES-SM-0665</v>
       </c>
       <c r="C666" s="4" t="s">
         <v>94</v>
@@ -25487,7 +25487,7 @@
     <row r="667" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A667" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000666</v>
+        <v>RES-SM-0666</v>
       </c>
       <c r="C667" s="4" t="s">
         <v>95</v>
@@ -25514,7 +25514,7 @@
     <row r="668" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A668" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000667</v>
+        <v>RES-SM-0667</v>
       </c>
       <c r="C668" s="4" t="s">
         <v>96</v>
@@ -25541,7 +25541,7 @@
     <row r="669" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A669" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000668</v>
+        <v>RES-SM-0668</v>
       </c>
       <c r="C669" s="4" t="s">
         <v>97</v>
@@ -25568,7 +25568,7 @@
     <row r="670" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A670" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000669</v>
+        <v>RES-SM-0669</v>
       </c>
       <c r="C670" s="4" t="s">
         <v>98</v>
@@ -25595,7 +25595,7 @@
     <row r="671" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A671" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000670</v>
+        <v>RES-SM-0670</v>
       </c>
       <c r="C671" s="4" t="s">
         <v>99</v>
@@ -25622,7 +25622,7 @@
     <row r="672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A672" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000671</v>
+        <v>RES-SM-0671</v>
       </c>
       <c r="C672" s="4" t="s">
         <v>100</v>
@@ -25649,7 +25649,7 @@
     <row r="673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A673" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000672</v>
+        <v>RES-SM-0672</v>
       </c>
       <c r="C673" s="4" t="s">
         <v>101</v>
@@ -25676,7 +25676,7 @@
     <row r="674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A674" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000673</v>
+        <v>RES-SM-0673</v>
       </c>
       <c r="C674" s="4" t="s">
         <v>102</v>
@@ -25703,7 +25703,7 @@
     <row r="675" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A675" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000674</v>
+        <v>RES-SM-0674</v>
       </c>
       <c r="C675" s="4" t="s">
         <v>103</v>
@@ -25730,7 +25730,7 @@
     <row r="676" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A676" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000675</v>
+        <v>RES-SM-0675</v>
       </c>
       <c r="C676" s="4" t="s">
         <v>104</v>
@@ -25757,7 +25757,7 @@
     <row r="677" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A677" t="str">
         <f t="shared" si="10"/>
-        <v>RES-SM-000676</v>
+        <v>RES-SM-0676</v>
       </c>
       <c r="C677" s="4" t="s">
         <v>105</v>
